--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/城市居民消费价格分类指数(上年同月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/城市居民消费价格分类指数(上年同月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,1130 +483,1130 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="E2" t="n">
-        <v>98.2</v>
+        <v>95.7</v>
       </c>
       <c r="F2" t="n">
         <v>97.7</v>
       </c>
       <c r="G2" t="n">
-        <v>107</v>
+        <v>104.9</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>99.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="J2" t="n">
-        <v>96.3</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>100.9</v>
+        <v>99.3</v>
       </c>
       <c r="D3" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="E3" t="n">
-        <v>98.2</v>
+        <v>95.7</v>
       </c>
       <c r="F3" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="G3" t="n">
-        <v>107.3</v>
+        <v>105.2</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="C4" t="n">
-        <v>100.3</v>
+        <v>99.3</v>
       </c>
       <c r="D4" t="n">
-        <v>101.9</v>
+        <v>100.1</v>
       </c>
       <c r="E4" t="n">
-        <v>98.2</v>
+        <v>95.5</v>
       </c>
       <c r="F4" t="n">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="G4" t="n">
-        <v>106.9</v>
+        <v>105.6</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="J4" t="n">
-        <v>99.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C5" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="D5" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E5" t="n">
-        <v>95.7</v>
+        <v>96.2</v>
       </c>
       <c r="F5" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="G5" t="n">
-        <v>104.9</v>
+        <v>106.9</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="J5" t="n">
-        <v>96.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="E6" t="n">
-        <v>95.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="G6" t="n">
-        <v>105.2</v>
+        <v>107.9</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="J6" t="n">
-        <v>98.5</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="C7" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="D7" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="E7" t="n">
-        <v>95.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>105.6</v>
+        <v>107.8</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>96.40000000000001</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>93.8</v>
       </c>
       <c r="C8" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>96.2</v>
+        <v>96.7</v>
       </c>
       <c r="F8" t="n">
         <v>97.8</v>
       </c>
       <c r="G8" t="n">
-        <v>106.9</v>
+        <v>107.5</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="J8" t="n">
-        <v>95.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="C9" t="n">
-        <v>99.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="D9" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="E9" t="n">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="F9" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="G9" t="n">
-        <v>107.9</v>
+        <v>106.5</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="J9" t="n">
-        <v>96.7</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5</v>
+        <v>101.2</v>
       </c>
       <c r="D10" t="n">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="E10" t="n">
-        <v>96.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="G10" t="n">
-        <v>107.8</v>
+        <v>106.6</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="J10" t="n">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>101.4</v>
       </c>
       <c r="D11" t="n">
-        <v>101</v>
+        <v>100.4</v>
       </c>
       <c r="E11" t="n">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
       <c r="F11" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G11" t="n">
-        <v>107.5</v>
+        <v>107</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94</v>
+        <v>94.3</v>
       </c>
       <c r="C12" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
       <c r="D12" t="n">
-        <v>100.7</v>
+        <v>101.7</v>
       </c>
       <c r="E12" t="n">
-        <v>96.2</v>
+        <v>98.2</v>
       </c>
       <c r="F12" t="n">
-        <v>98</v>
+        <v>97.2</v>
       </c>
       <c r="G12" t="n">
-        <v>106.5</v>
+        <v>107.3</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="J12" t="n">
-        <v>97.3</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="D13" t="n">
-        <v>100.4</v>
+        <v>101.9</v>
       </c>
       <c r="E13" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="F13" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="G13" t="n">
-        <v>106.6</v>
+        <v>106.9</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J13" t="n">
-        <v>96.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.40000000000001</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>98.7</v>
+        <v>100.0159</v>
       </c>
       <c r="D14" t="n">
-        <v>100.1</v>
+        <v>101.2944</v>
       </c>
       <c r="E14" t="n">
-        <v>101.3</v>
+        <v>110.1541</v>
       </c>
       <c r="F14" t="n">
-        <v>97.40000000000001</v>
+        <v>97.9609</v>
       </c>
       <c r="G14" t="n">
-        <v>100.8</v>
+        <v>103.5421</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1</v>
+        <v>99.5476</v>
       </c>
       <c r="I14" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2372</v>
       </c>
       <c r="J14" t="n">
-        <v>100.9</v>
+        <v>99.6681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.3</v>
+        <v>98</v>
       </c>
       <c r="C15" t="n">
-        <v>98.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E15" t="n">
-        <v>101.1</v>
+        <v>109.7</v>
       </c>
       <c r="F15" t="n">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="G15" t="n">
-        <v>100.7</v>
+        <v>103.5</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I15" t="n">
-        <v>98.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>99.2</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.2</v>
+        <v>97.8</v>
       </c>
       <c r="C16" t="n">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D16" t="n">
-        <v>99.40000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="E16" t="n">
-        <v>100.6</v>
+        <v>110</v>
       </c>
       <c r="F16" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I16" t="n">
         <v>97.3</v>
       </c>
-      <c r="G16" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>98.2</v>
-      </c>
       <c r="J16" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98.79000000000001</v>
+        <v>99</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0159</v>
+        <v>99.8</v>
       </c>
       <c r="D17" t="n">
-        <v>101.2944</v>
+        <v>101.8</v>
       </c>
       <c r="E17" t="n">
-        <v>110.1541</v>
+        <v>110.3</v>
       </c>
       <c r="F17" t="n">
-        <v>97.9609</v>
+        <v>97.5</v>
       </c>
       <c r="G17" t="n">
-        <v>103.5421</v>
+        <v>102.2</v>
       </c>
       <c r="H17" t="n">
-        <v>99.5476</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>98.2372</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>99.6681</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="C18" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D18" t="n">
-        <v>99.8</v>
+        <v>101.9</v>
       </c>
       <c r="E18" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="F18" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="G18" t="n">
-        <v>103.5</v>
+        <v>101.8</v>
       </c>
       <c r="H18" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>96.5</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="D19" t="n">
-        <v>100.7</v>
+        <v>101.5</v>
       </c>
       <c r="E19" t="n">
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="F19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G19" t="n">
-        <v>103.2</v>
+        <v>101.4</v>
       </c>
       <c r="H19" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>98.90000000000001</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C20" t="n">
         <v>99</v>
       </c>
-      <c r="C20" t="n">
-        <v>99.8</v>
-      </c>
       <c r="D20" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="E20" t="n">
-        <v>110.3</v>
+        <v>109.3</v>
       </c>
       <c r="F20" t="n">
         <v>97.5</v>
       </c>
       <c r="G20" t="n">
-        <v>102.2</v>
+        <v>100.9</v>
       </c>
       <c r="H20" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="D21" t="n">
-        <v>101.9</v>
+        <v>100.8</v>
       </c>
       <c r="E21" t="n">
-        <v>110</v>
+        <v>109.2</v>
       </c>
       <c r="F21" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>101.8</v>
+        <v>100.8</v>
       </c>
       <c r="H21" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="J21" t="n">
-        <v>102.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>99.3</v>
+        <v>98.7</v>
       </c>
       <c r="D22" t="n">
-        <v>101.5</v>
+        <v>99.8</v>
       </c>
       <c r="E22" t="n">
-        <v>109.5</v>
+        <v>101</v>
       </c>
       <c r="F22" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="G22" t="n">
-        <v>101.4</v>
+        <v>100.8</v>
       </c>
       <c r="H22" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="I22" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="D23" t="n">
-        <v>101.5</v>
+        <v>100.1</v>
       </c>
       <c r="E23" t="n">
-        <v>109.3</v>
+        <v>101.3</v>
       </c>
       <c r="F23" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="H23" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="I23" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>101.8</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C24" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>100.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>109.2</v>
+        <v>101.1</v>
       </c>
       <c r="F24" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="G24" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="H24" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>97.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>100.2</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D25" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="C25" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>99.8</v>
-      </c>
       <c r="E25" t="n">
-        <v>101</v>
+        <v>100.6</v>
       </c>
       <c r="F25" t="n">
         <v>97.3</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="H25" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="J25" t="n">
-        <v>100.3</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C26" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E26" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="G26" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="H26" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I26" t="n">
-        <v>96.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>99.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98</v>
+        <v>99.3</v>
       </c>
       <c r="C27" t="n">
-        <v>97.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="E27" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G27" t="n">
         <v>100.3</v>
       </c>
-      <c r="F27" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>100.4</v>
-      </c>
       <c r="H27" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I27" t="n">
-        <v>96.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="J27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.09999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D28" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="J28" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="E28" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D29" t="n">
         <v>98.3</v>
       </c>
-      <c r="C29" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D29" t="n">
-        <v>98.7</v>
-      </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F29" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="I29" t="n">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="J29" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.3</v>
+        <v>97.7</v>
       </c>
       <c r="C30" t="n">
-        <v>98.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="D30" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
         <v>97.5</v>
       </c>
       <c r="G30" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>100.3</v>
       </c>
-      <c r="H30" t="n">
-        <v>100.1</v>
-      </c>
       <c r="I30" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="J30" t="n">
-        <v>100.8</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>98</v>
+      </c>
+      <c r="D31" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="C31" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>98.90000000000001</v>
-      </c>
       <c r="E31" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="G31" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="E32" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="F32" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="G32" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="J32" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>97.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>97.7</v>
       </c>
       <c r="C33" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="D33" t="n">
-        <v>98.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="F33" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="G33" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="H33" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>98.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C34" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="D34" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E34" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="F34" t="n">
         <v>97.2</v>
       </c>
       <c r="G34" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="I34" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="J34" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D35" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="F35" t="n">
         <v>97.2</v>
       </c>
       <c r="G35" t="n">
-        <v>99.3</v>
+        <v>100.3</v>
       </c>
       <c r="H35" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>97.3</v>
+        <v>96.8</v>
       </c>
       <c r="J35" t="n">
         <v>99.40000000000001</v>
@@ -1615,32 +1615,32 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="C36" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="D36" t="n">
         <v>99.2</v>
       </c>
       <c r="E36" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="F36" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="G36" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="H36" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>97.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J36" t="n">
         <v>99.90000000000001</v>
@@ -1649,5339 +1649,5339 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C37" t="n">
         <v>97.8</v>
       </c>
-      <c r="C37" t="n">
-        <v>97.7</v>
-      </c>
       <c r="D37" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E37" t="n">
         <v>100.5</v>
       </c>
       <c r="F37" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="H37" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97</v>
+        <v>98.34</v>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>97.84</v>
       </c>
       <c r="D38" t="n">
-        <v>101.4572</v>
+        <v>100.44</v>
       </c>
       <c r="E38" t="n">
-        <v>100.6</v>
+        <v>100.91</v>
       </c>
       <c r="F38" t="n">
-        <v>97.09999999999999</v>
+        <v>96.92</v>
       </c>
       <c r="G38" t="n">
-        <v>102.5</v>
+        <v>101.88</v>
       </c>
       <c r="H38" t="n">
-        <v>100.1</v>
+        <v>99.42</v>
       </c>
       <c r="I38" t="n">
-        <v>97.90000000000001</v>
+        <v>96.59</v>
       </c>
       <c r="J38" t="n">
-        <v>104.9</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>96.85550000000001</v>
+        <v>97.8655</v>
       </c>
       <c r="C39" t="n">
-        <v>100.3635</v>
+        <v>97.8134</v>
       </c>
       <c r="D39" t="n">
-        <v>102.4412</v>
+        <v>100.1559</v>
       </c>
       <c r="E39" t="n">
-        <v>100.3899</v>
+        <v>100.5456</v>
       </c>
       <c r="F39" t="n">
-        <v>97.28449999999999</v>
+        <v>96.7672</v>
       </c>
       <c r="G39" t="n">
-        <v>102.6971</v>
+        <v>101.8056</v>
       </c>
       <c r="H39" t="n">
-        <v>100.4131</v>
+        <v>99.3322</v>
       </c>
       <c r="I39" t="n">
-        <v>98.1007</v>
+        <v>96.663</v>
       </c>
       <c r="J39" t="n">
-        <v>107.6264</v>
+        <v>102.2478</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.0468</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>100.3862</v>
+        <v>98.3</v>
       </c>
       <c r="D40" t="n">
-        <v>102.6783</v>
+        <v>101.0171</v>
       </c>
       <c r="E40" t="n">
-        <v>100.4154</v>
+        <v>100.5</v>
       </c>
       <c r="F40" t="n">
-        <v>97.35769999999999</v>
+        <v>96.8</v>
       </c>
       <c r="G40" t="n">
-        <v>102.9482</v>
+        <v>103.5</v>
       </c>
       <c r="H40" t="n">
-        <v>100.9565</v>
+        <v>99.3</v>
       </c>
       <c r="I40" t="n">
-        <v>97.99169999999999</v>
+        <v>97</v>
       </c>
       <c r="J40" t="n">
-        <v>108.082</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.34</v>
+        <v>97.6658</v>
       </c>
       <c r="C41" t="n">
-        <v>97.84</v>
+        <v>99.864</v>
       </c>
       <c r="D41" t="n">
-        <v>100.44</v>
+        <v>101.0367</v>
       </c>
       <c r="E41" t="n">
-        <v>100.91</v>
+        <v>100.4061</v>
       </c>
       <c r="F41" t="n">
-        <v>96.92</v>
+        <v>96.8091</v>
       </c>
       <c r="G41" t="n">
-        <v>101.88</v>
+        <v>103.145</v>
       </c>
       <c r="H41" t="n">
-        <v>99.42</v>
+        <v>99.33580000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>96.59</v>
+        <v>97.3411</v>
       </c>
       <c r="J41" t="n">
-        <v>102.7</v>
+        <v>103.6594</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.8655</v>
+        <v>97.3227</v>
       </c>
       <c r="C42" t="n">
-        <v>97.8134</v>
+        <v>101.2765</v>
       </c>
       <c r="D42" t="n">
-        <v>100.1559</v>
+        <v>100.5194</v>
       </c>
       <c r="E42" t="n">
-        <v>100.5456</v>
+        <v>100.1778</v>
       </c>
       <c r="F42" t="n">
-        <v>96.7672</v>
+        <v>97.06010000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>101.8056</v>
+        <v>102.9471</v>
       </c>
       <c r="H42" t="n">
-        <v>99.3322</v>
+        <v>99.4121</v>
       </c>
       <c r="I42" t="n">
-        <v>96.663</v>
+        <v>97.2582</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2478</v>
+        <v>102.0079</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C43" t="n">
-        <v>98.3</v>
+        <v>101.1</v>
       </c>
       <c r="D43" t="n">
-        <v>101.0171</v>
+        <v>100</v>
       </c>
       <c r="E43" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="F43" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="H43" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="I43" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="J43" t="n">
-        <v>103.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.6658</v>
+        <v>97.1092</v>
       </c>
       <c r="C44" t="n">
-        <v>99.864</v>
+        <v>100.5342</v>
       </c>
       <c r="D44" t="n">
-        <v>101.0367</v>
+        <v>100.1899</v>
       </c>
       <c r="E44" t="n">
-        <v>100.4061</v>
+        <v>100.4049</v>
       </c>
       <c r="F44" t="n">
-        <v>96.8091</v>
+        <v>96.985</v>
       </c>
       <c r="G44" t="n">
-        <v>103.145</v>
+        <v>103.4437</v>
       </c>
       <c r="H44" t="n">
-        <v>99.33580000000001</v>
+        <v>99.7726</v>
       </c>
       <c r="I44" t="n">
-        <v>97.3411</v>
+        <v>97.5523</v>
       </c>
       <c r="J44" t="n">
-        <v>103.6594</v>
+        <v>100.8326</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.3227</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>101.2765</v>
+        <v>100.2</v>
       </c>
       <c r="D45" t="n">
-        <v>100.5194</v>
+        <v>100.6011</v>
       </c>
       <c r="E45" t="n">
-        <v>100.1778</v>
+        <v>100.7</v>
       </c>
       <c r="F45" t="n">
-        <v>97.06010000000001</v>
+        <v>97</v>
       </c>
       <c r="G45" t="n">
-        <v>102.9471</v>
+        <v>103.2</v>
       </c>
       <c r="H45" t="n">
-        <v>99.4121</v>
+        <v>99.8</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2582</v>
+        <v>97.7</v>
       </c>
       <c r="J45" t="n">
-        <v>102.0079</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.2</v>
+        <v>97.1431</v>
       </c>
       <c r="C46" t="n">
-        <v>101.1</v>
+        <v>100.3944</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>100.8509</v>
       </c>
       <c r="E46" t="n">
-        <v>100.8</v>
+        <v>100.4204</v>
       </c>
       <c r="F46" t="n">
-        <v>97.09999999999999</v>
+        <v>97.0719</v>
       </c>
       <c r="G46" t="n">
-        <v>103.4</v>
+        <v>102.6365</v>
       </c>
       <c r="H46" t="n">
-        <v>99.7</v>
+        <v>99.8597</v>
       </c>
       <c r="I46" t="n">
-        <v>97.3</v>
+        <v>97.6956</v>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>103.1019</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.1092</v>
+        <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>100.5342</v>
+        <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>100.1899</v>
+        <v>101.4572</v>
       </c>
       <c r="E47" t="n">
-        <v>100.4049</v>
+        <v>100.6</v>
       </c>
       <c r="F47" t="n">
-        <v>96.985</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>103.4437</v>
+        <v>102.5</v>
       </c>
       <c r="H47" t="n">
-        <v>99.7726</v>
+        <v>100.1</v>
       </c>
       <c r="I47" t="n">
-        <v>97.5523</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>100.8326</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.09999999999999</v>
+        <v>96.85550000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>100.2</v>
+        <v>100.3635</v>
       </c>
       <c r="D48" t="n">
-        <v>100.6011</v>
+        <v>102.4412</v>
       </c>
       <c r="E48" t="n">
-        <v>100.7</v>
+        <v>100.3899</v>
       </c>
       <c r="F48" t="n">
-        <v>97</v>
+        <v>97.28449999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>103.2</v>
+        <v>102.6971</v>
       </c>
       <c r="H48" t="n">
-        <v>99.8</v>
+        <v>100.4131</v>
       </c>
       <c r="I48" t="n">
-        <v>97.7</v>
+        <v>98.1007</v>
       </c>
       <c r="J48" t="n">
-        <v>102.1</v>
+        <v>107.6264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>97.1431</v>
+        <v>97.0468</v>
       </c>
       <c r="C49" t="n">
-        <v>100.3944</v>
+        <v>100.3862</v>
       </c>
       <c r="D49" t="n">
-        <v>100.8509</v>
+        <v>102.6783</v>
       </c>
       <c r="E49" t="n">
-        <v>100.4204</v>
+        <v>100.4154</v>
       </c>
       <c r="F49" t="n">
-        <v>97.0719</v>
+        <v>97.35769999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>102.6365</v>
+        <v>102.9482</v>
       </c>
       <c r="H49" t="n">
-        <v>99.8597</v>
+        <v>100.9565</v>
       </c>
       <c r="I49" t="n">
-        <v>97.6956</v>
+        <v>97.99169999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>103.1019</v>
+        <v>108.082</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>98.10680000000001</v>
+        <v>97.6942</v>
       </c>
       <c r="C50" t="n">
-        <v>98.8699</v>
+        <v>100.8288</v>
       </c>
       <c r="D50" t="n">
-        <v>103.6547</v>
+        <v>102.516</v>
       </c>
       <c r="E50" t="n">
-        <v>100.9035</v>
+        <v>101.1592</v>
       </c>
       <c r="F50" t="n">
-        <v>98.4778</v>
+        <v>97.55419999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>106.3602</v>
+        <v>101.9852</v>
       </c>
       <c r="H50" t="n">
-        <v>101.352</v>
+        <v>101.0112</v>
       </c>
       <c r="I50" t="n">
-        <v>98.1598</v>
+        <v>98.2796</v>
       </c>
       <c r="J50" t="n">
-        <v>109.1941</v>
+        <v>107.1453</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>98.0956</v>
+        <v>97.1555</v>
       </c>
       <c r="C51" t="n">
-        <v>98.8616</v>
+        <v>100.8149</v>
       </c>
       <c r="D51" t="n">
-        <v>102.4102</v>
+        <v>101.418</v>
       </c>
       <c r="E51" t="n">
-        <v>101.048</v>
+        <v>99.5244</v>
       </c>
       <c r="F51" t="n">
-        <v>98.4337</v>
+        <v>97.70010000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>106.5801</v>
+        <v>102.1441</v>
       </c>
       <c r="H51" t="n">
-        <v>101.0234</v>
+        <v>100.9718</v>
       </c>
       <c r="I51" t="n">
-        <v>98.1063</v>
+        <v>98.801</v>
       </c>
       <c r="J51" t="n">
-        <v>105.5133</v>
+        <v>104.5152</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>97.8733</v>
+        <v>97.36539999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>99.024</v>
+        <v>100.8381</v>
       </c>
       <c r="D52" t="n">
-        <v>101.9541</v>
+        <v>102.3759</v>
       </c>
       <c r="E52" t="n">
-        <v>101.1024</v>
+        <v>100.3608</v>
       </c>
       <c r="F52" t="n">
-        <v>98.46680000000001</v>
+        <v>97.78789999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>105.7204</v>
+        <v>102.3516</v>
       </c>
       <c r="H52" t="n">
-        <v>100.5892</v>
+        <v>101.1139</v>
       </c>
       <c r="I52" t="n">
-        <v>98.2645</v>
+        <v>99.137</v>
       </c>
       <c r="J52" t="n">
-        <v>104.51</v>
+        <v>106.6663</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>97.6942</v>
+        <v>97.7513</v>
       </c>
       <c r="C53" t="n">
-        <v>100.8288</v>
+        <v>99.29170000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>102.516</v>
+        <v>103.2083</v>
       </c>
       <c r="E53" t="n">
-        <v>101.1592</v>
+        <v>100.836</v>
       </c>
       <c r="F53" t="n">
-        <v>97.55419999999999</v>
+        <v>97.92189999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>101.9852</v>
+        <v>103.0519</v>
       </c>
       <c r="H53" t="n">
-        <v>101.0112</v>
+        <v>101.124</v>
       </c>
       <c r="I53" t="n">
-        <v>98.2796</v>
+        <v>98.7423</v>
       </c>
       <c r="J53" t="n">
-        <v>107.1453</v>
+        <v>109.0234</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97.1555</v>
+        <v>98.0371</v>
       </c>
       <c r="C54" t="n">
-        <v>100.8149</v>
+        <v>98.07170000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>101.418</v>
+        <v>103.9272</v>
       </c>
       <c r="E54" t="n">
-        <v>99.5244</v>
+        <v>101.2121</v>
       </c>
       <c r="F54" t="n">
-        <v>97.70010000000001</v>
+        <v>97.95</v>
       </c>
       <c r="G54" t="n">
-        <v>102.1441</v>
+        <v>103.8343</v>
       </c>
       <c r="H54" t="n">
-        <v>100.9718</v>
+        <v>101.2008</v>
       </c>
       <c r="I54" t="n">
-        <v>98.801</v>
+        <v>98.6692</v>
       </c>
       <c r="J54" t="n">
-        <v>104.5152</v>
+        <v>111.0229</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.36539999999999</v>
+        <v>98.11669999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>100.8381</v>
+        <v>97.9714</v>
       </c>
       <c r="D55" t="n">
-        <v>102.3759</v>
+        <v>104.6204</v>
       </c>
       <c r="E55" t="n">
-        <v>100.3608</v>
+        <v>100.5213</v>
       </c>
       <c r="F55" t="n">
-        <v>97.78789999999999</v>
+        <v>98.149</v>
       </c>
       <c r="G55" t="n">
-        <v>102.3516</v>
+        <v>104.1</v>
       </c>
       <c r="H55" t="n">
-        <v>101.1139</v>
+        <v>101.3251</v>
       </c>
       <c r="I55" t="n">
-        <v>99.137</v>
+        <v>98.6142</v>
       </c>
       <c r="J55" t="n">
-        <v>106.6663</v>
+        <v>113.491</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>97.7513</v>
+        <v>98.2099</v>
       </c>
       <c r="C56" t="n">
-        <v>99.29170000000001</v>
+        <v>98.37909999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>103.2083</v>
+        <v>104.9231</v>
       </c>
       <c r="E56" t="n">
-        <v>100.836</v>
+        <v>101.1744</v>
       </c>
       <c r="F56" t="n">
-        <v>97.92189999999999</v>
+        <v>98.4328</v>
       </c>
       <c r="G56" t="n">
-        <v>103.0519</v>
+        <v>104.188</v>
       </c>
       <c r="H56" t="n">
-        <v>101.124</v>
+        <v>101.4937</v>
       </c>
       <c r="I56" t="n">
-        <v>98.7423</v>
+        <v>98.40560000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>109.0234</v>
+        <v>114.009</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>98.0371</v>
+        <v>98.2043</v>
       </c>
       <c r="C57" t="n">
-        <v>98.07170000000001</v>
+        <v>98.5381</v>
       </c>
       <c r="D57" t="n">
-        <v>103.9272</v>
+        <v>104.7609</v>
       </c>
       <c r="E57" t="n">
-        <v>101.2121</v>
+        <v>100.9898</v>
       </c>
       <c r="F57" t="n">
-        <v>97.95</v>
+        <v>98.4246</v>
       </c>
       <c r="G57" t="n">
-        <v>103.8343</v>
+        <v>105.1143</v>
       </c>
       <c r="H57" t="n">
-        <v>101.2008</v>
+        <v>101.5049</v>
       </c>
       <c r="I57" t="n">
-        <v>98.6692</v>
+        <v>98.28870000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>111.0229</v>
+        <v>113.0671</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>98.11669999999999</v>
+        <v>98.187</v>
       </c>
       <c r="C58" t="n">
-        <v>97.9714</v>
+        <v>98.72450000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>104.6204</v>
+        <v>104.5132</v>
       </c>
       <c r="E58" t="n">
-        <v>100.5213</v>
+        <v>100.9313</v>
       </c>
       <c r="F58" t="n">
-        <v>98.149</v>
+        <v>98.4684</v>
       </c>
       <c r="G58" t="n">
-        <v>104.1</v>
+        <v>105.5359</v>
       </c>
       <c r="H58" t="n">
-        <v>101.3251</v>
+        <v>101.4396</v>
       </c>
       <c r="I58" t="n">
-        <v>98.6142</v>
+        <v>98.38849999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>113.491</v>
+        <v>111.9953</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>98.2099</v>
+        <v>98.10680000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>98.37909999999999</v>
+        <v>98.8699</v>
       </c>
       <c r="D59" t="n">
-        <v>104.9231</v>
+        <v>103.6547</v>
       </c>
       <c r="E59" t="n">
-        <v>101.1744</v>
+        <v>100.9035</v>
       </c>
       <c r="F59" t="n">
-        <v>98.4328</v>
+        <v>98.4778</v>
       </c>
       <c r="G59" t="n">
-        <v>104.188</v>
+        <v>106.3602</v>
       </c>
       <c r="H59" t="n">
-        <v>101.4937</v>
+        <v>101.352</v>
       </c>
       <c r="I59" t="n">
-        <v>98.40560000000001</v>
+        <v>98.1598</v>
       </c>
       <c r="J59" t="n">
-        <v>114.009</v>
+        <v>109.1941</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>98.2043</v>
+        <v>98.0956</v>
       </c>
       <c r="C60" t="n">
-        <v>98.5381</v>
+        <v>98.8616</v>
       </c>
       <c r="D60" t="n">
-        <v>104.7609</v>
+        <v>102.4102</v>
       </c>
       <c r="E60" t="n">
-        <v>100.9898</v>
+        <v>101.048</v>
       </c>
       <c r="F60" t="n">
-        <v>98.4246</v>
+        <v>98.4337</v>
       </c>
       <c r="G60" t="n">
-        <v>105.1143</v>
+        <v>106.5801</v>
       </c>
       <c r="H60" t="n">
-        <v>101.5049</v>
+        <v>101.0234</v>
       </c>
       <c r="I60" t="n">
-        <v>98.28870000000001</v>
+        <v>98.1063</v>
       </c>
       <c r="J60" t="n">
-        <v>113.0671</v>
+        <v>105.5133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>98.187</v>
+        <v>97.8733</v>
       </c>
       <c r="C61" t="n">
-        <v>98.72450000000001</v>
+        <v>99.024</v>
       </c>
       <c r="D61" t="n">
-        <v>104.5132</v>
+        <v>101.9541</v>
       </c>
       <c r="E61" t="n">
-        <v>100.9313</v>
+        <v>101.1024</v>
       </c>
       <c r="F61" t="n">
-        <v>98.4684</v>
+        <v>98.46680000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>105.5359</v>
+        <v>105.7204</v>
       </c>
       <c r="H61" t="n">
-        <v>101.4396</v>
+        <v>100.5892</v>
       </c>
       <c r="I61" t="n">
-        <v>98.38849999999999</v>
+        <v>98.2645</v>
       </c>
       <c r="J61" t="n">
-        <v>111.9953</v>
+        <v>104.51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>98.95780000000001</v>
+        <v>97.25579999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>100.2184</v>
+        <v>98.9346</v>
       </c>
       <c r="D62" t="n">
-        <v>101.1728</v>
+        <v>101.4336</v>
       </c>
       <c r="E62" t="n">
-        <v>100.6932</v>
+        <v>100.2013</v>
       </c>
       <c r="F62" t="n">
-        <v>100.3481</v>
+        <v>98.6614</v>
       </c>
       <c r="G62" t="n">
-        <v>105.1301</v>
+        <v>105.4786</v>
       </c>
       <c r="H62" t="n">
-        <v>100.237</v>
+        <v>100.3161</v>
       </c>
       <c r="I62" t="n">
-        <v>98.61620000000001</v>
+        <v>98.30410000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>101.7954</v>
+        <v>103.6957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.04640000000001</v>
+        <v>98.35380000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>100.1311</v>
+        <v>99.07899999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>101.275</v>
+        <v>103.6294</v>
       </c>
       <c r="E63" t="n">
-        <v>100.6559</v>
+        <v>102.4756</v>
       </c>
       <c r="F63" t="n">
-        <v>100.5399</v>
+        <v>98.90219999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>104.7471</v>
+        <v>105.6115</v>
       </c>
       <c r="H63" t="n">
-        <v>100.1887</v>
+        <v>100.4323</v>
       </c>
       <c r="I63" t="n">
-        <v>98.7641</v>
+        <v>97.6236</v>
       </c>
       <c r="J63" t="n">
-        <v>102.133</v>
+        <v>108.8377</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.0911</v>
+        <v>98.1626</v>
       </c>
       <c r="C64" t="n">
-        <v>100.318</v>
+        <v>99.0431</v>
       </c>
       <c r="D64" t="n">
-        <v>101.5631</v>
+        <v>102.3041</v>
       </c>
       <c r="E64" t="n">
-        <v>100.5434</v>
+        <v>101.624</v>
       </c>
       <c r="F64" t="n">
-        <v>100.6232</v>
+        <v>99.056</v>
       </c>
       <c r="G64" t="n">
-        <v>105.0438</v>
+        <v>105.8398</v>
       </c>
       <c r="H64" t="n">
-        <v>100.1523</v>
+        <v>100.4316</v>
       </c>
       <c r="I64" t="n">
-        <v>99.0063</v>
+        <v>97.0266</v>
       </c>
       <c r="J64" t="n">
-        <v>102.7831</v>
+        <v>105.5231</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>97.25579999999999</v>
+        <v>98.0043</v>
       </c>
       <c r="C65" t="n">
-        <v>98.9346</v>
+        <v>99.0317</v>
       </c>
       <c r="D65" t="n">
-        <v>101.4336</v>
+        <v>101.499</v>
       </c>
       <c r="E65" t="n">
-        <v>100.2013</v>
+        <v>101.6912</v>
       </c>
       <c r="F65" t="n">
-        <v>98.6614</v>
+        <v>99.24420000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>105.4786</v>
+        <v>105.9945</v>
       </c>
       <c r="H65" t="n">
-        <v>100.3161</v>
+        <v>100.431</v>
       </c>
       <c r="I65" t="n">
-        <v>98.30410000000001</v>
+        <v>97.1666</v>
       </c>
       <c r="J65" t="n">
-        <v>103.6957</v>
+        <v>103.1479</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>98.35380000000001</v>
+        <v>98.0121</v>
       </c>
       <c r="C66" t="n">
-        <v>99.07899999999999</v>
+        <v>99.12350000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>103.6294</v>
+        <v>101.4245</v>
       </c>
       <c r="E66" t="n">
-        <v>102.4756</v>
+        <v>101.6498</v>
       </c>
       <c r="F66" t="n">
-        <v>98.90219999999999</v>
+        <v>99.4469</v>
       </c>
       <c r="G66" t="n">
-        <v>105.6115</v>
+        <v>105.9868</v>
       </c>
       <c r="H66" t="n">
-        <v>100.4323</v>
+        <v>100.3695</v>
       </c>
       <c r="I66" t="n">
-        <v>97.6236</v>
+        <v>97.405</v>
       </c>
       <c r="J66" t="n">
-        <v>108.8377</v>
+        <v>102.8229</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.1626</v>
+        <v>98.13460000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>99.0431</v>
+        <v>99.49379999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>102.3041</v>
+        <v>101.2783</v>
       </c>
       <c r="E67" t="n">
-        <v>101.624</v>
+        <v>101.5634</v>
       </c>
       <c r="F67" t="n">
-        <v>99.056</v>
+        <v>99.7747</v>
       </c>
       <c r="G67" t="n">
-        <v>105.8398</v>
+        <v>106.0458</v>
       </c>
       <c r="H67" t="n">
-        <v>100.4316</v>
+        <v>100.3075</v>
       </c>
       <c r="I67" t="n">
-        <v>97.0266</v>
+        <v>97.71380000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>105.5231</v>
+        <v>102.0967</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98.0043</v>
+        <v>98.4571</v>
       </c>
       <c r="C68" t="n">
-        <v>99.0317</v>
+        <v>99.8784</v>
       </c>
       <c r="D68" t="n">
-        <v>101.499</v>
+        <v>101.5954</v>
       </c>
       <c r="E68" t="n">
-        <v>101.6912</v>
+        <v>101.8203</v>
       </c>
       <c r="F68" t="n">
-        <v>99.24420000000001</v>
+        <v>99.8107</v>
       </c>
       <c r="G68" t="n">
-        <v>105.9945</v>
+        <v>106.1646</v>
       </c>
       <c r="H68" t="n">
-        <v>100.431</v>
+        <v>100.285</v>
       </c>
       <c r="I68" t="n">
-        <v>97.1666</v>
+        <v>97.8481</v>
       </c>
       <c r="J68" t="n">
-        <v>103.1479</v>
+        <v>102.5996</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>98.0121</v>
+        <v>98.7499</v>
       </c>
       <c r="C69" t="n">
-        <v>99.12350000000001</v>
+        <v>99.97750000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>101.4245</v>
+        <v>101.152</v>
       </c>
       <c r="E69" t="n">
-        <v>101.6498</v>
+        <v>102.0017</v>
       </c>
       <c r="F69" t="n">
-        <v>99.4469</v>
+        <v>99.9973</v>
       </c>
       <c r="G69" t="n">
-        <v>105.9868</v>
+        <v>105.591</v>
       </c>
       <c r="H69" t="n">
-        <v>100.3695</v>
+        <v>100.2912</v>
       </c>
       <c r="I69" t="n">
-        <v>97.405</v>
+        <v>98.00530000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>102.8229</v>
+        <v>101.3362</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>98.13460000000001</v>
+        <v>98.79940000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>99.49379999999999</v>
+        <v>100.244</v>
       </c>
       <c r="D70" t="n">
-        <v>101.2783</v>
+        <v>100.8124</v>
       </c>
       <c r="E70" t="n">
-        <v>101.5634</v>
+        <v>100.661</v>
       </c>
       <c r="F70" t="n">
-        <v>99.7747</v>
+        <v>100.15</v>
       </c>
       <c r="G70" t="n">
-        <v>106.0458</v>
+        <v>105.4573</v>
       </c>
       <c r="H70" t="n">
-        <v>100.3075</v>
+        <v>100.3102</v>
       </c>
       <c r="I70" t="n">
-        <v>97.71380000000001</v>
+        <v>98.3079</v>
       </c>
       <c r="J70" t="n">
-        <v>102.0967</v>
+        <v>100.8345</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>98.4571</v>
+        <v>98.95780000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>99.8784</v>
+        <v>100.2184</v>
       </c>
       <c r="D71" t="n">
-        <v>101.5954</v>
+        <v>101.1728</v>
       </c>
       <c r="E71" t="n">
-        <v>101.8203</v>
+        <v>100.6932</v>
       </c>
       <c r="F71" t="n">
-        <v>99.8107</v>
+        <v>100.3481</v>
       </c>
       <c r="G71" t="n">
-        <v>106.1646</v>
+        <v>105.1301</v>
       </c>
       <c r="H71" t="n">
-        <v>100.285</v>
+        <v>100.237</v>
       </c>
       <c r="I71" t="n">
-        <v>97.8481</v>
+        <v>98.61620000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>102.5996</v>
+        <v>101.7954</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>98.7499</v>
+        <v>99.04640000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>99.97750000000001</v>
+        <v>100.1311</v>
       </c>
       <c r="D72" t="n">
-        <v>101.152</v>
+        <v>101.275</v>
       </c>
       <c r="E72" t="n">
-        <v>102.0017</v>
+        <v>100.6559</v>
       </c>
       <c r="F72" t="n">
-        <v>99.9973</v>
+        <v>100.5399</v>
       </c>
       <c r="G72" t="n">
-        <v>105.591</v>
+        <v>104.7471</v>
       </c>
       <c r="H72" t="n">
-        <v>100.2912</v>
+        <v>100.1887</v>
       </c>
       <c r="I72" t="n">
-        <v>98.00530000000001</v>
+        <v>98.7641</v>
       </c>
       <c r="J72" t="n">
-        <v>101.3362</v>
+        <v>102.133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>98.79940000000001</v>
+        <v>99.0911</v>
       </c>
       <c r="C73" t="n">
-        <v>100.244</v>
+        <v>100.318</v>
       </c>
       <c r="D73" t="n">
-        <v>100.8124</v>
+        <v>101.5631</v>
       </c>
       <c r="E73" t="n">
-        <v>100.661</v>
+        <v>100.5434</v>
       </c>
       <c r="F73" t="n">
-        <v>100.15</v>
+        <v>100.6232</v>
       </c>
       <c r="G73" t="n">
-        <v>105.4573</v>
+        <v>105.0438</v>
       </c>
       <c r="H73" t="n">
-        <v>100.3102</v>
+        <v>100.1523</v>
       </c>
       <c r="I73" t="n">
-        <v>98.3079</v>
+        <v>99.0063</v>
       </c>
       <c r="J73" t="n">
-        <v>100.8345</v>
+        <v>102.7831</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>99.43723359000001</v>
+        <v>99.03797588</v>
       </c>
       <c r="C74" t="n">
-        <v>100.98717621</v>
+        <v>100.22446859</v>
       </c>
       <c r="D74" t="n">
-        <v>101.4472958</v>
+        <v>101.96105134</v>
       </c>
       <c r="E74" t="n">
-        <v>99.61111262</v>
+        <v>101.01462</v>
       </c>
       <c r="F74" t="n">
-        <v>101.80959628</v>
+        <v>100.57678635</v>
       </c>
       <c r="G74" t="n">
-        <v>104.80330292</v>
+        <v>105.23364393</v>
       </c>
       <c r="H74" t="n">
-        <v>101.09841552</v>
+        <v>100.38257559</v>
       </c>
       <c r="I74" t="n">
-        <v>99.69726215</v>
+        <v>98.13503337</v>
       </c>
       <c r="J74" t="n">
-        <v>102.21382174</v>
+        <v>104.13725589</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>99.47744981</v>
+        <v>98.57453366999999</v>
       </c>
       <c r="C75" t="n">
-        <v>101.05954764</v>
+        <v>100.34691193</v>
       </c>
       <c r="D75" t="n">
-        <v>101.80014115</v>
+        <v>100.87319912</v>
       </c>
       <c r="E75" t="n">
-        <v>99.40840059999999</v>
+        <v>99.55141578</v>
       </c>
       <c r="F75" t="n">
-        <v>101.84601869</v>
+        <v>100.70497813</v>
       </c>
       <c r="G75" t="n">
-        <v>104.37452835</v>
+        <v>105.30416281</v>
       </c>
       <c r="H75" t="n">
-        <v>101.31387422</v>
+        <v>100.3238487</v>
       </c>
       <c r="I75" t="n">
-        <v>100.03825563</v>
+        <v>98.51842809999999</v>
       </c>
       <c r="J75" t="n">
-        <v>103.34922655</v>
+        <v>101.44889828</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>99.49242255999999</v>
+        <v>98.72836269</v>
       </c>
       <c r="C76" t="n">
-        <v>100.93445723</v>
+        <v>100.51514443</v>
       </c>
       <c r="D76" t="n">
-        <v>102.6553427</v>
+        <v>100.84943243</v>
       </c>
       <c r="E76" t="n">
-        <v>99.27606752</v>
+        <v>99.99960814000001</v>
       </c>
       <c r="F76" t="n">
-        <v>101.89081955</v>
+        <v>100.72054954</v>
       </c>
       <c r="G76" t="n">
-        <v>104.75315212</v>
+        <v>104.58070882</v>
       </c>
       <c r="H76" t="n">
-        <v>101.68187432</v>
+        <v>100.38798346</v>
       </c>
       <c r="I76" t="n">
-        <v>99.94347223</v>
+        <v>99.299826</v>
       </c>
       <c r="J76" t="n">
-        <v>105.79651073</v>
+        <v>101.12036664</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.03797588</v>
+        <v>98.91104869999999</v>
       </c>
       <c r="C77" t="n">
-        <v>100.22446859</v>
+        <v>100.7464928</v>
       </c>
       <c r="D77" t="n">
-        <v>101.96105134</v>
+        <v>101.24840888</v>
       </c>
       <c r="E77" t="n">
-        <v>101.01462</v>
+        <v>100.21634856</v>
       </c>
       <c r="F77" t="n">
-        <v>100.57678635</v>
+        <v>100.6967956</v>
       </c>
       <c r="G77" t="n">
-        <v>105.23364393</v>
+        <v>104.22209164</v>
       </c>
       <c r="H77" t="n">
-        <v>100.38257559</v>
+        <v>100.61309895</v>
       </c>
       <c r="I77" t="n">
-        <v>98.13503337</v>
+        <v>99.59308066</v>
       </c>
       <c r="J77" t="n">
-        <v>104.13725589</v>
+        <v>102.10665409</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>98.57453366999999</v>
+        <v>99.22619348000001</v>
       </c>
       <c r="C78" t="n">
-        <v>100.34691193</v>
+        <v>101.13879882</v>
       </c>
       <c r="D78" t="n">
-        <v>100.87319912</v>
+        <v>101.44537246</v>
       </c>
       <c r="E78" t="n">
-        <v>99.55141578</v>
+        <v>100.26765767</v>
       </c>
       <c r="F78" t="n">
-        <v>100.70497813</v>
+        <v>100.85218343</v>
       </c>
       <c r="G78" t="n">
-        <v>105.30416281</v>
+        <v>104.57300047</v>
       </c>
       <c r="H78" t="n">
-        <v>100.3238487</v>
+        <v>100.73475757</v>
       </c>
       <c r="I78" t="n">
-        <v>98.51842809999999</v>
+        <v>99.58930245000001</v>
       </c>
       <c r="J78" t="n">
-        <v>101.44889828</v>
+        <v>102.28682521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>98.72836269</v>
+        <v>99.77839039</v>
       </c>
       <c r="C79" t="n">
-        <v>100.51514443</v>
+        <v>101.25887838</v>
       </c>
       <c r="D79" t="n">
-        <v>100.84943243</v>
+        <v>101.60103014</v>
       </c>
       <c r="E79" t="n">
-        <v>99.99960814000001</v>
+        <v>100.36557487</v>
       </c>
       <c r="F79" t="n">
-        <v>100.72054954</v>
+        <v>101.3522184</v>
       </c>
       <c r="G79" t="n">
-        <v>104.58070882</v>
+        <v>104.26149458</v>
       </c>
       <c r="H79" t="n">
-        <v>100.38798346</v>
+        <v>100.75242146</v>
       </c>
       <c r="I79" t="n">
-        <v>99.299826</v>
+        <v>99.43960477</v>
       </c>
       <c r="J79" t="n">
-        <v>101.12036664</v>
+        <v>102.56543672</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>98.91104869999999</v>
+        <v>99.68903761999999</v>
       </c>
       <c r="C80" t="n">
-        <v>100.7464928</v>
+        <v>101.21991032</v>
       </c>
       <c r="D80" t="n">
-        <v>101.24840888</v>
+        <v>100.98557271</v>
       </c>
       <c r="E80" t="n">
-        <v>100.21634856</v>
+        <v>100.30242684</v>
       </c>
       <c r="F80" t="n">
-        <v>100.6967956</v>
+        <v>101.57797554</v>
       </c>
       <c r="G80" t="n">
-        <v>104.22209164</v>
+        <v>104.35800452</v>
       </c>
       <c r="H80" t="n">
-        <v>100.61309895</v>
+        <v>100.71658058</v>
       </c>
       <c r="I80" t="n">
-        <v>99.59308066</v>
+        <v>99.38262354</v>
       </c>
       <c r="J80" t="n">
-        <v>102.10665409</v>
+        <v>100.73219213</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.22619348000001</v>
+        <v>99.4257329</v>
       </c>
       <c r="C81" t="n">
-        <v>101.13879882</v>
+        <v>101.34897846</v>
       </c>
       <c r="D81" t="n">
-        <v>101.44537246</v>
+        <v>101.26264468</v>
       </c>
       <c r="E81" t="n">
-        <v>100.26765767</v>
+        <v>100.17080069</v>
       </c>
       <c r="F81" t="n">
-        <v>100.85218343</v>
+        <v>101.70784762</v>
       </c>
       <c r="G81" t="n">
-        <v>104.57300047</v>
+        <v>104.7393115</v>
       </c>
       <c r="H81" t="n">
-        <v>100.73475757</v>
+        <v>100.87782598</v>
       </c>
       <c r="I81" t="n">
-        <v>99.58930245000001</v>
+        <v>99.46450056</v>
       </c>
       <c r="J81" t="n">
-        <v>102.28682521</v>
+        <v>101.44825078</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.77839039</v>
+        <v>99.46749779</v>
       </c>
       <c r="C82" t="n">
-        <v>101.25887838</v>
+        <v>101.11602116</v>
       </c>
       <c r="D82" t="n">
-        <v>101.60103014</v>
+        <v>101.58022259</v>
       </c>
       <c r="E82" t="n">
-        <v>100.36557487</v>
+        <v>99.58345097999999</v>
       </c>
       <c r="F82" t="n">
-        <v>101.3522184</v>
+        <v>101.81115746</v>
       </c>
       <c r="G82" t="n">
-        <v>104.26149458</v>
+        <v>105.24954605</v>
       </c>
       <c r="H82" t="n">
-        <v>100.75242146</v>
+        <v>101.03175874</v>
       </c>
       <c r="I82" t="n">
-        <v>99.43960477</v>
+        <v>99.44405333</v>
       </c>
       <c r="J82" t="n">
-        <v>102.56543672</v>
+        <v>102.48246673</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.68903761999999</v>
+        <v>99.43723359000001</v>
       </c>
       <c r="C83" t="n">
-        <v>101.21991032</v>
+        <v>100.98717621</v>
       </c>
       <c r="D83" t="n">
-        <v>100.98557271</v>
+        <v>101.4472958</v>
       </c>
       <c r="E83" t="n">
-        <v>100.30242684</v>
+        <v>99.61111262</v>
       </c>
       <c r="F83" t="n">
-        <v>101.57797554</v>
+        <v>101.80959628</v>
       </c>
       <c r="G83" t="n">
-        <v>104.35800452</v>
+        <v>104.80330292</v>
       </c>
       <c r="H83" t="n">
-        <v>100.71658058</v>
+        <v>101.09841552</v>
       </c>
       <c r="I83" t="n">
-        <v>99.38262354</v>
+        <v>99.69726215</v>
       </c>
       <c r="J83" t="n">
-        <v>100.73219213</v>
+        <v>102.21382174</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>99.4257329</v>
+        <v>99.47744981</v>
       </c>
       <c r="C84" t="n">
-        <v>101.34897846</v>
+        <v>101.05954764</v>
       </c>
       <c r="D84" t="n">
-        <v>101.26264468</v>
+        <v>101.80014115</v>
       </c>
       <c r="E84" t="n">
-        <v>100.17080069</v>
+        <v>99.40840059999999</v>
       </c>
       <c r="F84" t="n">
-        <v>101.70784762</v>
+        <v>101.84601869</v>
       </c>
       <c r="G84" t="n">
-        <v>104.7393115</v>
+        <v>104.37452835</v>
       </c>
       <c r="H84" t="n">
-        <v>100.87782598</v>
+        <v>101.31387422</v>
       </c>
       <c r="I84" t="n">
-        <v>99.46450056</v>
+        <v>100.03825563</v>
       </c>
       <c r="J84" t="n">
-        <v>101.44825078</v>
+        <v>103.34922655</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>99.46749779</v>
+        <v>99.49242255999999</v>
       </c>
       <c r="C85" t="n">
-        <v>101.11602116</v>
+        <v>100.93445723</v>
       </c>
       <c r="D85" t="n">
-        <v>101.58022259</v>
+        <v>102.6553427</v>
       </c>
       <c r="E85" t="n">
-        <v>99.58345097999999</v>
+        <v>99.27606752</v>
       </c>
       <c r="F85" t="n">
-        <v>101.81115746</v>
+        <v>101.89081955</v>
       </c>
       <c r="G85" t="n">
-        <v>105.24954605</v>
+        <v>104.75315212</v>
       </c>
       <c r="H85" t="n">
-        <v>101.03175874</v>
+        <v>101.68187432</v>
       </c>
       <c r="I85" t="n">
-        <v>99.44405333</v>
+        <v>99.94347223</v>
       </c>
       <c r="J85" t="n">
-        <v>102.48246673</v>
+        <v>105.79651073</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>97.5</v>
+        <v>98.95078166</v>
       </c>
       <c r="C86" t="n">
-        <v>102.5</v>
+        <v>100.97227268</v>
       </c>
       <c r="D86" t="n">
-        <v>106.1396</v>
+        <v>101.954647</v>
       </c>
       <c r="E86" t="n">
-        <v>99.40000000000001</v>
+        <v>98.28878432</v>
       </c>
       <c r="F86" t="n">
-        <v>101.7</v>
+        <v>101.94636562</v>
       </c>
       <c r="G86" t="n">
-        <v>104.8</v>
+        <v>103.85317022</v>
       </c>
       <c r="H86" t="n">
-        <v>101.8</v>
+        <v>101.74448787</v>
       </c>
       <c r="I86" t="n">
-        <v>98.3</v>
+        <v>100.39660553</v>
       </c>
       <c r="J86" t="n">
-        <v>117</v>
+        <v>104.47440717</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>97.85204507</v>
+        <v>99.09414207</v>
       </c>
       <c r="C87" t="n">
-        <v>102.71010476</v>
+        <v>101.06151875</v>
       </c>
       <c r="D87" t="n">
-        <v>106.61853967</v>
+        <v>102.48290634</v>
       </c>
       <c r="E87" t="n">
-        <v>99.4819804</v>
+        <v>99.86713507</v>
       </c>
       <c r="F87" t="n">
-        <v>101.87217536</v>
+        <v>102.117926</v>
       </c>
       <c r="G87" t="n">
-        <v>105.89023917</v>
+        <v>103.64167855</v>
       </c>
       <c r="H87" t="n">
-        <v>101.85710259</v>
+        <v>101.94089055</v>
       </c>
       <c r="I87" t="n">
-        <v>98.16694629</v>
+        <v>99.95038442000001</v>
       </c>
       <c r="J87" t="n">
-        <v>117.73021786</v>
+        <v>105.47635614</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>98.05139231</v>
+        <v>99.21690769999999</v>
       </c>
       <c r="C88" t="n">
-        <v>102.83036191</v>
+        <v>101.04508417</v>
       </c>
       <c r="D88" t="n">
-        <v>106.20548227</v>
+        <v>103.09658251</v>
       </c>
       <c r="E88" t="n">
-        <v>99.38996478</v>
+        <v>99.41424741</v>
       </c>
       <c r="F88" t="n">
-        <v>101.9315263</v>
+        <v>102.06762857</v>
       </c>
       <c r="G88" t="n">
-        <v>105.67724979</v>
+        <v>104.0929067</v>
       </c>
       <c r="H88" t="n">
-        <v>101.8007326</v>
+        <v>101.86166146</v>
       </c>
       <c r="I88" t="n">
-        <v>97.85540150999999</v>
+        <v>99.55724312</v>
       </c>
       <c r="J88" t="n">
-        <v>116.29643782</v>
+        <v>107.42212241</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>98.95078166</v>
+        <v>98.98322032999999</v>
       </c>
       <c r="C89" t="n">
-        <v>100.97227268</v>
+        <v>101.17155639</v>
       </c>
       <c r="D89" t="n">
-        <v>101.954647</v>
+        <v>102.85667027</v>
       </c>
       <c r="E89" t="n">
-        <v>98.28878432</v>
+        <v>99.17744958</v>
       </c>
       <c r="F89" t="n">
-        <v>101.94636562</v>
+        <v>102.15940388</v>
       </c>
       <c r="G89" t="n">
-        <v>103.85317022</v>
+        <v>104.35442742</v>
       </c>
       <c r="H89" t="n">
-        <v>101.74448787</v>
+        <v>101.74947938</v>
       </c>
       <c r="I89" t="n">
-        <v>100.39660553</v>
+        <v>99.55147321</v>
       </c>
       <c r="J89" t="n">
-        <v>104.47440717</v>
+        <v>106.75407829</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.09414207</v>
+        <v>98.70263495</v>
       </c>
       <c r="C90" t="n">
-        <v>101.06151875</v>
+        <v>101.2660091</v>
       </c>
       <c r="D90" t="n">
-        <v>102.48290634</v>
+        <v>103.11993947</v>
       </c>
       <c r="E90" t="n">
-        <v>99.86713507</v>
+        <v>99.19358226999999</v>
       </c>
       <c r="F90" t="n">
-        <v>102.117926</v>
+        <v>102.1279449</v>
       </c>
       <c r="G90" t="n">
-        <v>103.64167855</v>
+        <v>104.03732398</v>
       </c>
       <c r="H90" t="n">
-        <v>101.94089055</v>
+        <v>101.72712026</v>
       </c>
       <c r="I90" t="n">
-        <v>99.95038442000001</v>
+        <v>99.63502771</v>
       </c>
       <c r="J90" t="n">
-        <v>105.47635614</v>
+        <v>107.71744518</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.21690769999999</v>
+        <v>98.16478231000001</v>
       </c>
       <c r="C91" t="n">
-        <v>101.04508417</v>
+        <v>101.54379341</v>
       </c>
       <c r="D91" t="n">
-        <v>103.09658251</v>
+        <v>104.06202962</v>
       </c>
       <c r="E91" t="n">
-        <v>99.41424741</v>
+        <v>99.23015714</v>
       </c>
       <c r="F91" t="n">
-        <v>102.06762857</v>
+        <v>101.643394</v>
       </c>
       <c r="G91" t="n">
-        <v>104.0929067</v>
+        <v>104.55721975</v>
       </c>
       <c r="H91" t="n">
-        <v>101.86166146</v>
+        <v>101.77120649</v>
       </c>
       <c r="I91" t="n">
-        <v>99.55724312</v>
+        <v>99.50215119000001</v>
       </c>
       <c r="J91" t="n">
-        <v>107.42212241</v>
+        <v>110.59210862</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>98.98322032999999</v>
+        <v>98.00250493999999</v>
       </c>
       <c r="C92" t="n">
-        <v>101.17155639</v>
+        <v>101.76862582</v>
       </c>
       <c r="D92" t="n">
-        <v>102.85667027</v>
+        <v>105.28217718</v>
       </c>
       <c r="E92" t="n">
-        <v>99.17744958</v>
+        <v>99.22681699</v>
       </c>
       <c r="F92" t="n">
-        <v>102.15940388</v>
+        <v>101.40995244</v>
       </c>
       <c r="G92" t="n">
-        <v>104.35442742</v>
+        <v>104.58882806</v>
       </c>
       <c r="H92" t="n">
-        <v>101.74947938</v>
+        <v>101.82002683</v>
       </c>
       <c r="I92" t="n">
-        <v>99.55147321</v>
+        <v>99.10871302</v>
       </c>
       <c r="J92" t="n">
-        <v>106.75407829</v>
+        <v>114.53813542</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>98.70263495</v>
+        <v>98.03759212</v>
       </c>
       <c r="C93" t="n">
-        <v>101.2660091</v>
+        <v>101.91734558</v>
       </c>
       <c r="D93" t="n">
-        <v>103.11993947</v>
+        <v>106.1716429</v>
       </c>
       <c r="E93" t="n">
-        <v>99.19358226999999</v>
+        <v>99.293938</v>
       </c>
       <c r="F93" t="n">
-        <v>102.1279449</v>
+        <v>101.5678311</v>
       </c>
       <c r="G93" t="n">
-        <v>104.03732398</v>
+        <v>104.39472811</v>
       </c>
       <c r="H93" t="n">
-        <v>101.72712026</v>
+        <v>101.78280246</v>
       </c>
       <c r="I93" t="n">
-        <v>99.63502771</v>
+        <v>98.84109599999999</v>
       </c>
       <c r="J93" t="n">
-        <v>107.71744518</v>
+        <v>117.24311028</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>98.16478231000001</v>
+        <v>97.87833465999999</v>
       </c>
       <c r="C94" t="n">
-        <v>101.54379341</v>
+        <v>102.18087557</v>
       </c>
       <c r="D94" t="n">
-        <v>104.06202962</v>
+        <v>105.83227545</v>
       </c>
       <c r="E94" t="n">
-        <v>99.23015714</v>
+        <v>99.51625518</v>
       </c>
       <c r="F94" t="n">
-        <v>101.643394</v>
+        <v>101.7185065</v>
       </c>
       <c r="G94" t="n">
-        <v>104.55721975</v>
+        <v>104.22681713</v>
       </c>
       <c r="H94" t="n">
-        <v>101.77120649</v>
+        <v>101.73511692</v>
       </c>
       <c r="I94" t="n">
-        <v>99.50215119000001</v>
+        <v>98.71767015</v>
       </c>
       <c r="J94" t="n">
-        <v>110.59210862</v>
+        <v>116.06136475</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>98.00250493999999</v>
+        <v>97.5</v>
       </c>
       <c r="C95" t="n">
-        <v>101.76862582</v>
+        <v>102.5</v>
       </c>
       <c r="D95" t="n">
-        <v>105.28217718</v>
+        <v>106.1396</v>
       </c>
       <c r="E95" t="n">
-        <v>99.22681699</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>101.40995244</v>
+        <v>101.7</v>
       </c>
       <c r="G95" t="n">
-        <v>104.58882806</v>
+        <v>104.8</v>
       </c>
       <c r="H95" t="n">
-        <v>101.82002683</v>
+        <v>101.8</v>
       </c>
       <c r="I95" t="n">
-        <v>99.10871302</v>
+        <v>98.3</v>
       </c>
       <c r="J95" t="n">
-        <v>114.53813542</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>98.03759212</v>
+        <v>97.85204507</v>
       </c>
       <c r="C96" t="n">
-        <v>101.91734558</v>
+        <v>102.71010476</v>
       </c>
       <c r="D96" t="n">
-        <v>106.1716429</v>
+        <v>106.61853967</v>
       </c>
       <c r="E96" t="n">
-        <v>99.293938</v>
+        <v>99.4819804</v>
       </c>
       <c r="F96" t="n">
-        <v>101.5678311</v>
+        <v>101.87217536</v>
       </c>
       <c r="G96" t="n">
-        <v>104.39472811</v>
+        <v>105.89023917</v>
       </c>
       <c r="H96" t="n">
-        <v>101.78280246</v>
+        <v>101.85710259</v>
       </c>
       <c r="I96" t="n">
-        <v>98.84109599999999</v>
+        <v>98.16694629</v>
       </c>
       <c r="J96" t="n">
-        <v>117.24311028</v>
+        <v>117.73021786</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>97.87833465999999</v>
+        <v>98.05139231</v>
       </c>
       <c r="C97" t="n">
-        <v>102.18087557</v>
+        <v>102.83036191</v>
       </c>
       <c r="D97" t="n">
-        <v>105.83227545</v>
+        <v>106.20548227</v>
       </c>
       <c r="E97" t="n">
-        <v>99.51625518</v>
+        <v>99.38996478</v>
       </c>
       <c r="F97" t="n">
-        <v>101.7185065</v>
+        <v>101.9315263</v>
       </c>
       <c r="G97" t="n">
-        <v>104.22681713</v>
+        <v>105.67724979</v>
       </c>
       <c r="H97" t="n">
-        <v>101.73511692</v>
+        <v>101.8007326</v>
       </c>
       <c r="I97" t="n">
-        <v>98.71767015</v>
+        <v>97.85540150999999</v>
       </c>
       <c r="J97" t="n">
-        <v>116.06136475</v>
+        <v>116.29643782</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>99.46387802</v>
+        <v>98.24246088</v>
       </c>
       <c r="C98" t="n">
-        <v>102.33568346</v>
+        <v>102.84871456</v>
       </c>
       <c r="D98" t="n">
-        <v>103.7124638</v>
+        <v>106.77730176</v>
       </c>
       <c r="E98" t="n">
-        <v>99.13766475</v>
+        <v>99.6665522</v>
       </c>
       <c r="F98" t="n">
-        <v>103.6393776</v>
+        <v>102.20051058</v>
       </c>
       <c r="G98" t="n">
-        <v>102.81180332</v>
+        <v>105.90575995</v>
       </c>
       <c r="H98" t="n">
-        <v>103.70971529</v>
+        <v>102.22753029</v>
       </c>
       <c r="I98" t="n">
-        <v>98.35899790000001</v>
+        <v>97.53535866</v>
       </c>
       <c r="J98" t="n">
-        <v>108.99613835</v>
+        <v>117.78626616</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>98.7807128</v>
+        <v>97.99330983</v>
       </c>
       <c r="C99" t="n">
-        <v>101.83346866</v>
+        <v>103.12869221</v>
       </c>
       <c r="D99" t="n">
-        <v>102.22352683</v>
+        <v>108.49734453</v>
       </c>
       <c r="E99" t="n">
-        <v>99.2867236</v>
+        <v>99.05507050999999</v>
       </c>
       <c r="F99" t="n">
-        <v>103.35046604</v>
+        <v>102.24954568</v>
       </c>
       <c r="G99" t="n">
-        <v>99.2726634</v>
+        <v>106.32198164</v>
       </c>
       <c r="H99" t="n">
-        <v>103.51950802</v>
+        <v>102.46986107</v>
       </c>
       <c r="I99" t="n">
-        <v>98.0067639</v>
+        <v>98.03916329</v>
       </c>
       <c r="J99" t="n">
-        <v>106.56705348</v>
+        <v>123.00004745</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.04993985999999</v>
+        <v>97.75126232</v>
       </c>
       <c r="C100" t="n">
-        <v>101.55905326</v>
+        <v>103.52710737</v>
       </c>
       <c r="D100" t="n">
-        <v>100.92544849</v>
+        <v>107.96989287</v>
       </c>
       <c r="E100" t="n">
-        <v>98.86093446</v>
+        <v>99.22941849</v>
       </c>
       <c r="F100" t="n">
-        <v>103.13287341</v>
+        <v>102.61145569</v>
       </c>
       <c r="G100" t="n">
-        <v>96.53695834</v>
+        <v>106.39302352</v>
       </c>
       <c r="H100" t="n">
-        <v>103.19272093</v>
+        <v>102.68742617</v>
       </c>
       <c r="I100" t="n">
-        <v>97.41620567</v>
+        <v>98.56431288</v>
       </c>
       <c r="J100" t="n">
-        <v>104.72154734</v>
+        <v>120.94013458</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>98.24246088</v>
+        <v>97.67917575</v>
       </c>
       <c r="C101" t="n">
-        <v>102.84871456</v>
+        <v>103.44125027</v>
       </c>
       <c r="D101" t="n">
-        <v>106.77730176</v>
+        <v>108.10939108</v>
       </c>
       <c r="E101" t="n">
-        <v>99.6665522</v>
+        <v>99.25747035000001</v>
       </c>
       <c r="F101" t="n">
-        <v>102.20051058</v>
+        <v>102.75226932</v>
       </c>
       <c r="G101" t="n">
-        <v>105.90575995</v>
+        <v>106.11707385</v>
       </c>
       <c r="H101" t="n">
-        <v>102.22753029</v>
+        <v>102.79273609</v>
       </c>
       <c r="I101" t="n">
-        <v>97.53535866</v>
+        <v>98.34559704</v>
       </c>
       <c r="J101" t="n">
-        <v>117.78626616</v>
+        <v>121.6123744</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>97.99330983</v>
+        <v>97.67512364</v>
       </c>
       <c r="C102" t="n">
-        <v>103.12869221</v>
+        <v>103.11796762</v>
       </c>
       <c r="D102" t="n">
-        <v>108.49734453</v>
+        <v>107.33306649</v>
       </c>
       <c r="E102" t="n">
-        <v>99.05507050999999</v>
+        <v>98.51763459999999</v>
       </c>
       <c r="F102" t="n">
-        <v>102.24954568</v>
+        <v>102.89574077</v>
       </c>
       <c r="G102" t="n">
-        <v>106.32198164</v>
+        <v>106.20978236</v>
       </c>
       <c r="H102" t="n">
-        <v>102.46986107</v>
+        <v>103.0331459</v>
       </c>
       <c r="I102" t="n">
-        <v>98.03916329</v>
+        <v>98.15157284999999</v>
       </c>
       <c r="J102" t="n">
-        <v>123.00004745</v>
+        <v>119.56044296</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>97.75126232</v>
+        <v>98.14218553000001</v>
       </c>
       <c r="C103" t="n">
-        <v>103.52710737</v>
+        <v>103.00009958</v>
       </c>
       <c r="D103" t="n">
-        <v>107.96989287</v>
+        <v>106.7643757</v>
       </c>
       <c r="E103" t="n">
-        <v>99.22941849</v>
+        <v>98.84188932000001</v>
       </c>
       <c r="F103" t="n">
-        <v>102.61145569</v>
+        <v>103.119559</v>
       </c>
       <c r="G103" t="n">
-        <v>106.39302352</v>
+        <v>106.37517905</v>
       </c>
       <c r="H103" t="n">
-        <v>102.68742617</v>
+        <v>103.28974181</v>
       </c>
       <c r="I103" t="n">
-        <v>98.56431288</v>
+        <v>98.15940457000001</v>
       </c>
       <c r="J103" t="n">
-        <v>120.94013458</v>
+        <v>117.30455778</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>97.67917575</v>
+        <v>98.9883658</v>
       </c>
       <c r="C104" t="n">
-        <v>103.44125027</v>
+        <v>103.01798978</v>
       </c>
       <c r="D104" t="n">
-        <v>108.10939108</v>
+        <v>106.0669976</v>
       </c>
       <c r="E104" t="n">
-        <v>99.25747035000001</v>
+        <v>98.85305839999999</v>
       </c>
       <c r="F104" t="n">
-        <v>102.75226932</v>
+        <v>103.4086715</v>
       </c>
       <c r="G104" t="n">
-        <v>106.11707385</v>
+        <v>106.19520718</v>
       </c>
       <c r="H104" t="n">
-        <v>102.79273609</v>
+        <v>103.34308245</v>
       </c>
       <c r="I104" t="n">
-        <v>98.34559704</v>
+        <v>98.30242148000001</v>
       </c>
       <c r="J104" t="n">
-        <v>121.6123744</v>
+        <v>114.80105735</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>97.67512364</v>
+        <v>99.07081491</v>
       </c>
       <c r="C105" t="n">
-        <v>103.11796762</v>
+        <v>102.79708955</v>
       </c>
       <c r="D105" t="n">
-        <v>107.33306649</v>
+        <v>104.68661612</v>
       </c>
       <c r="E105" t="n">
-        <v>98.51763459999999</v>
+        <v>99.10933917</v>
       </c>
       <c r="F105" t="n">
-        <v>102.89574077</v>
+        <v>103.45095356</v>
       </c>
       <c r="G105" t="n">
-        <v>106.20978236</v>
+        <v>105.48544773</v>
       </c>
       <c r="H105" t="n">
-        <v>103.0331459</v>
+        <v>103.528256</v>
       </c>
       <c r="I105" t="n">
-        <v>98.15157284999999</v>
+        <v>98.67747454000001</v>
       </c>
       <c r="J105" t="n">
-        <v>119.56044296</v>
+        <v>110.74569415</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98.14218553000001</v>
+        <v>99.16226865</v>
       </c>
       <c r="C106" t="n">
-        <v>103.00009958</v>
+        <v>102.56845424</v>
       </c>
       <c r="D106" t="n">
-        <v>106.7643757</v>
+        <v>104.37703229</v>
       </c>
       <c r="E106" t="n">
-        <v>98.84188932000001</v>
+        <v>99.15052296</v>
       </c>
       <c r="F106" t="n">
-        <v>103.119559</v>
+        <v>103.400769</v>
       </c>
       <c r="G106" t="n">
-        <v>106.37517905</v>
+        <v>104.72832713</v>
       </c>
       <c r="H106" t="n">
-        <v>103.28974181</v>
+        <v>103.7523331</v>
       </c>
       <c r="I106" t="n">
-        <v>98.15940457000001</v>
+        <v>98.57398066</v>
       </c>
       <c r="J106" t="n">
-        <v>117.30455778</v>
+        <v>110.16363115</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>98.9883658</v>
+        <v>99.46387802</v>
       </c>
       <c r="C107" t="n">
-        <v>103.01798978</v>
+        <v>102.33568346</v>
       </c>
       <c r="D107" t="n">
-        <v>106.0669976</v>
+        <v>103.7124638</v>
       </c>
       <c r="E107" t="n">
-        <v>98.85305839999999</v>
+        <v>99.13766475</v>
       </c>
       <c r="F107" t="n">
-        <v>103.4086715</v>
+        <v>103.6393776</v>
       </c>
       <c r="G107" t="n">
-        <v>106.19520718</v>
+        <v>102.81180332</v>
       </c>
       <c r="H107" t="n">
-        <v>103.34308245</v>
+        <v>103.70971529</v>
       </c>
       <c r="I107" t="n">
-        <v>98.30242148000001</v>
+        <v>98.35899790000001</v>
       </c>
       <c r="J107" t="n">
-        <v>114.80105735</v>
+        <v>108.99613835</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>99.07081491</v>
+        <v>98.7807128</v>
       </c>
       <c r="C108" t="n">
-        <v>102.79708955</v>
+        <v>101.83346866</v>
       </c>
       <c r="D108" t="n">
-        <v>104.68661612</v>
+        <v>102.22352683</v>
       </c>
       <c r="E108" t="n">
-        <v>99.10933917</v>
+        <v>99.2867236</v>
       </c>
       <c r="F108" t="n">
-        <v>103.45095356</v>
+        <v>103.35046604</v>
       </c>
       <c r="G108" t="n">
-        <v>105.48544773</v>
+        <v>99.2726634</v>
       </c>
       <c r="H108" t="n">
-        <v>103.528256</v>
+        <v>103.51950802</v>
       </c>
       <c r="I108" t="n">
-        <v>98.67747454000001</v>
+        <v>98.0067639</v>
       </c>
       <c r="J108" t="n">
-        <v>110.74569415</v>
+        <v>106.56705348</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>99.16226865</v>
+        <v>98.04993985999999</v>
       </c>
       <c r="C109" t="n">
-        <v>102.56845424</v>
+        <v>101.55905326</v>
       </c>
       <c r="D109" t="n">
-        <v>104.37703229</v>
+        <v>100.92544849</v>
       </c>
       <c r="E109" t="n">
-        <v>99.15052296</v>
+        <v>98.86093446</v>
       </c>
       <c r="F109" t="n">
-        <v>103.400769</v>
+        <v>103.13287341</v>
       </c>
       <c r="G109" t="n">
-        <v>104.72832713</v>
+        <v>96.53695834</v>
       </c>
       <c r="H109" t="n">
-        <v>103.7523331</v>
+        <v>103.19272093</v>
       </c>
       <c r="I109" t="n">
-        <v>98.57398066</v>
+        <v>97.41620567</v>
       </c>
       <c r="J109" t="n">
-        <v>110.16363115</v>
+        <v>104.72154734</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>97.1062728</v>
+        <v>96.99741259</v>
       </c>
       <c r="C110" t="n">
-        <v>101.06478747</v>
+        <v>101.48327963</v>
       </c>
       <c r="D110" t="n">
-        <v>99.30471872</v>
+        <v>100.72175701</v>
       </c>
       <c r="E110" t="n">
-        <v>98.73179004000001</v>
+        <v>100.07626546</v>
       </c>
       <c r="F110" t="n">
-        <v>98.70559359000001</v>
+        <v>102.90120918</v>
       </c>
       <c r="G110" t="n">
-        <v>95.73459468999999</v>
+        <v>95.67015094</v>
       </c>
       <c r="H110" t="n">
-        <v>101.38024969</v>
+        <v>102.58295905</v>
       </c>
       <c r="I110" t="n">
-        <v>98.26468266000001</v>
+        <v>96.96976165</v>
       </c>
       <c r="J110" t="n">
-        <v>101.54108645</v>
+        <v>104.73873607</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>97.70379669</v>
+        <v>96.78583819000001</v>
       </c>
       <c r="C111" t="n">
-        <v>101.53295999</v>
+        <v>101.21969404</v>
       </c>
       <c r="D111" t="n">
-        <v>100.40234135</v>
+        <v>98.14176774000001</v>
       </c>
       <c r="E111" t="n">
-        <v>98.92710523</v>
+        <v>98.07914183</v>
       </c>
       <c r="F111" t="n">
-        <v>98.85166504</v>
+        <v>102.27891718</v>
       </c>
       <c r="G111" t="n">
-        <v>98.62824394</v>
+        <v>95.23400209</v>
       </c>
       <c r="H111" t="n">
-        <v>101.43417437</v>
+        <v>102.19124624</v>
       </c>
       <c r="I111" t="n">
-        <v>98.80013052</v>
+        <v>97.677775</v>
       </c>
       <c r="J111" t="n">
-        <v>102.95686837</v>
+        <v>98.39925431</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>98.41143833</v>
+        <v>97.22923299</v>
       </c>
       <c r="C112" t="n">
-        <v>102.0609988</v>
+        <v>100.88280522</v>
       </c>
       <c r="D112" t="n">
-        <v>101.76770084</v>
+        <v>98.6166108</v>
       </c>
       <c r="E112" t="n">
-        <v>99.30463856999999</v>
+        <v>98.63345210999999</v>
       </c>
       <c r="F112" t="n">
-        <v>98.84095082</v>
+        <v>101.71640102</v>
       </c>
       <c r="G112" t="n">
-        <v>101.63536762</v>
+        <v>94.78618537</v>
       </c>
       <c r="H112" t="n">
-        <v>101.47193026</v>
+        <v>102.01017071</v>
       </c>
       <c r="I112" t="n">
-        <v>99.27639766999999</v>
+        <v>97.41341542000001</v>
       </c>
       <c r="J112" t="n">
-        <v>105.18764019</v>
+        <v>99.79484674</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>96.99741259</v>
+        <v>97.49629437999999</v>
       </c>
       <c r="C113" t="n">
-        <v>101.48327963</v>
+        <v>100.8400832</v>
       </c>
       <c r="D113" t="n">
-        <v>100.72175701</v>
+        <v>98.27426592</v>
       </c>
       <c r="E113" t="n">
-        <v>100.07626546</v>
+        <v>98.30184500999999</v>
       </c>
       <c r="F113" t="n">
-        <v>102.90120918</v>
+        <v>101.10296852</v>
       </c>
       <c r="G113" t="n">
-        <v>95.67015094</v>
+        <v>94.46651636</v>
       </c>
       <c r="H113" t="n">
-        <v>102.58295905</v>
+        <v>101.82015907</v>
       </c>
       <c r="I113" t="n">
-        <v>96.96976165</v>
+        <v>97.46514963</v>
       </c>
       <c r="J113" t="n">
-        <v>104.73873607</v>
+        <v>99.05033447</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>96.78583819000001</v>
+        <v>97.43187866</v>
       </c>
       <c r="C114" t="n">
-        <v>101.21969404</v>
+        <v>100.78310329</v>
       </c>
       <c r="D114" t="n">
-        <v>98.14176774000001</v>
+        <v>98.47342394</v>
       </c>
       <c r="E114" t="n">
-        <v>98.07914183</v>
+        <v>98.58057219</v>
       </c>
       <c r="F114" t="n">
-        <v>102.27891718</v>
+        <v>100.65791135</v>
       </c>
       <c r="G114" t="n">
-        <v>95.23400209</v>
+        <v>93.88340088</v>
       </c>
       <c r="H114" t="n">
-        <v>102.19124624</v>
+        <v>101.57371301</v>
       </c>
       <c r="I114" t="n">
-        <v>97.677775</v>
+        <v>97.49205980000001</v>
       </c>
       <c r="J114" t="n">
-        <v>98.39925431</v>
+        <v>99.84613767</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>97.22923299</v>
+        <v>97.36748</v>
       </c>
       <c r="C115" t="n">
-        <v>100.88280522</v>
+        <v>100.76864275</v>
       </c>
       <c r="D115" t="n">
-        <v>98.6166108</v>
+        <v>98.21918899000001</v>
       </c>
       <c r="E115" t="n">
-        <v>98.63345210999999</v>
+        <v>98.68296462000001</v>
       </c>
       <c r="F115" t="n">
-        <v>101.71640102</v>
+        <v>100.21504688</v>
       </c>
       <c r="G115" t="n">
-        <v>94.78618537</v>
+        <v>93.32500336</v>
       </c>
       <c r="H115" t="n">
-        <v>102.01017071</v>
+        <v>101.39546192</v>
       </c>
       <c r="I115" t="n">
-        <v>97.41341542000001</v>
+        <v>97.40488974</v>
       </c>
       <c r="J115" t="n">
-        <v>99.79484674</v>
+        <v>99.39847684999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>97.49629437999999</v>
+        <v>97.12053973</v>
       </c>
       <c r="C116" t="n">
-        <v>100.8400832</v>
+        <v>100.53302106</v>
       </c>
       <c r="D116" t="n">
-        <v>98.27426592</v>
+        <v>98.10060774999999</v>
       </c>
       <c r="E116" t="n">
-        <v>98.30184500999999</v>
+        <v>98.75850678</v>
       </c>
       <c r="F116" t="n">
-        <v>101.10296852</v>
+        <v>99.6560533</v>
       </c>
       <c r="G116" t="n">
-        <v>94.46651636</v>
+        <v>93.45537435</v>
       </c>
       <c r="H116" t="n">
-        <v>101.82015907</v>
+        <v>101.4398485</v>
       </c>
       <c r="I116" t="n">
-        <v>97.46514963</v>
+        <v>97.38173816</v>
       </c>
       <c r="J116" t="n">
-        <v>99.05033447</v>
+        <v>99.20606259</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>97.43187866</v>
+        <v>96.92089163999999</v>
       </c>
       <c r="C117" t="n">
-        <v>100.78310329</v>
+        <v>100.72682698</v>
       </c>
       <c r="D117" t="n">
-        <v>98.47342394</v>
+        <v>98.71771570999999</v>
       </c>
       <c r="E117" t="n">
-        <v>98.58057219</v>
+        <v>98.50630339</v>
       </c>
       <c r="F117" t="n">
-        <v>100.65791135</v>
+        <v>99.29795482999999</v>
       </c>
       <c r="G117" t="n">
-        <v>93.88340088</v>
+        <v>94.01453449</v>
       </c>
       <c r="H117" t="n">
-        <v>101.57371301</v>
+        <v>101.44327784</v>
       </c>
       <c r="I117" t="n">
-        <v>97.49205980000001</v>
+        <v>97.64798824</v>
       </c>
       <c r="J117" t="n">
-        <v>99.84613767</v>
+        <v>100.91734392</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>97.36748</v>
+        <v>97.12952774999999</v>
       </c>
       <c r="C118" t="n">
-        <v>100.76864275</v>
+        <v>100.93129722</v>
       </c>
       <c r="D118" t="n">
-        <v>98.21918899000001</v>
+        <v>99.11441843999999</v>
       </c>
       <c r="E118" t="n">
-        <v>98.68296462000001</v>
+        <v>98.5448536</v>
       </c>
       <c r="F118" t="n">
-        <v>100.21504688</v>
+        <v>99.12641073</v>
       </c>
       <c r="G118" t="n">
-        <v>93.32500336</v>
+        <v>94.41278729</v>
       </c>
       <c r="H118" t="n">
-        <v>101.39546192</v>
+        <v>101.42825722</v>
       </c>
       <c r="I118" t="n">
-        <v>97.40488974</v>
+        <v>98.10575304</v>
       </c>
       <c r="J118" t="n">
-        <v>99.39847684999999</v>
+        <v>101.68310219</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>97.12053973</v>
+        <v>97.1062728</v>
       </c>
       <c r="C119" t="n">
-        <v>100.53302106</v>
+        <v>101.06478747</v>
       </c>
       <c r="D119" t="n">
-        <v>98.10060774999999</v>
+        <v>99.30471872</v>
       </c>
       <c r="E119" t="n">
-        <v>98.75850678</v>
+        <v>98.73179004000001</v>
       </c>
       <c r="F119" t="n">
-        <v>99.6560533</v>
+        <v>98.70559359000001</v>
       </c>
       <c r="G119" t="n">
-        <v>93.45537435</v>
+        <v>95.73459468999999</v>
       </c>
       <c r="H119" t="n">
-        <v>101.4398485</v>
+        <v>101.38024969</v>
       </c>
       <c r="I119" t="n">
-        <v>97.38173816</v>
+        <v>98.26468266000001</v>
       </c>
       <c r="J119" t="n">
-        <v>99.20606259</v>
+        <v>101.54108645</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>96.92089163999999</v>
+        <v>97.70379669</v>
       </c>
       <c r="C120" t="n">
-        <v>100.72682698</v>
+        <v>101.53295999</v>
       </c>
       <c r="D120" t="n">
-        <v>98.71771570999999</v>
+        <v>100.40234135</v>
       </c>
       <c r="E120" t="n">
-        <v>98.50630339</v>
+        <v>98.92710523</v>
       </c>
       <c r="F120" t="n">
-        <v>99.29795482999999</v>
+        <v>98.85166504</v>
       </c>
       <c r="G120" t="n">
-        <v>94.01453449</v>
+        <v>98.62824394</v>
       </c>
       <c r="H120" t="n">
-        <v>101.44327784</v>
+        <v>101.43417437</v>
       </c>
       <c r="I120" t="n">
-        <v>97.64798824</v>
+        <v>98.80013052</v>
       </c>
       <c r="J120" t="n">
-        <v>100.91734392</v>
+        <v>102.95686837</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>97.12952774999999</v>
+        <v>98.41143833</v>
       </c>
       <c r="C121" t="n">
-        <v>100.93129722</v>
+        <v>102.0609988</v>
       </c>
       <c r="D121" t="n">
-        <v>99.11441843999999</v>
+        <v>101.76770084</v>
       </c>
       <c r="E121" t="n">
-        <v>98.5448536</v>
+        <v>99.30463856999999</v>
       </c>
       <c r="F121" t="n">
-        <v>99.12641073</v>
+        <v>98.84095082</v>
       </c>
       <c r="G121" t="n">
-        <v>94.41278729</v>
+        <v>101.63536762</v>
       </c>
       <c r="H121" t="n">
-        <v>101.42825722</v>
+        <v>101.47193026</v>
       </c>
       <c r="I121" t="n">
-        <v>98.10575304</v>
+        <v>99.27639766999999</v>
       </c>
       <c r="J121" t="n">
-        <v>101.68310219</v>
+        <v>105.18764019</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>99.28926154</v>
+        <v>99.32487291</v>
       </c>
       <c r="C122" t="n">
-        <v>103.7360281</v>
+        <v>102.24508772</v>
       </c>
       <c r="D122" t="n">
-        <v>104.24479606</v>
+        <v>101.41493076</v>
       </c>
       <c r="E122" t="n">
-        <v>100.73854169</v>
+        <v>97.99798903999999</v>
       </c>
       <c r="F122" t="n">
-        <v>100.46310978</v>
+        <v>98.72706556999999</v>
       </c>
       <c r="G122" t="n">
-        <v>104.74954946</v>
+        <v>102.72971342</v>
       </c>
       <c r="H122" t="n">
-        <v>101.61354438</v>
+        <v>101.68306726</v>
       </c>
       <c r="I122" t="n">
-        <v>98.42376514999999</v>
+        <v>99.77533895000001</v>
       </c>
       <c r="J122" t="n">
-        <v>110.04461625</v>
+        <v>103.67021581</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.06847254</v>
+        <v>99.94590438</v>
       </c>
       <c r="C123" t="n">
-        <v>104.10273921</v>
+        <v>102.3272535</v>
       </c>
       <c r="D123" t="n">
-        <v>104.91956906</v>
+        <v>102.60991682</v>
       </c>
       <c r="E123" t="n">
-        <v>100.45790955</v>
+        <v>100.58995525</v>
       </c>
       <c r="F123" t="n">
-        <v>100.74848998</v>
+        <v>99.08484273000001</v>
       </c>
       <c r="G123" t="n">
-        <v>105.4955805</v>
+        <v>103.13011908</v>
       </c>
       <c r="H123" t="n">
-        <v>101.73270826</v>
+        <v>101.70117613</v>
       </c>
       <c r="I123" t="n">
-        <v>99.04463232000001</v>
+        <v>98.47757673</v>
       </c>
       <c r="J123" t="n">
-        <v>111.58923022</v>
+        <v>106.20208725</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.08627489</v>
+        <v>99.78239531</v>
       </c>
       <c r="C124" t="n">
-        <v>104.05923992</v>
+        <v>102.45182296</v>
       </c>
       <c r="D124" t="n">
-        <v>104.38865595</v>
+        <v>102.25851291</v>
       </c>
       <c r="E124" t="n">
-        <v>100.59647177</v>
+        <v>99.91778273</v>
       </c>
       <c r="F124" t="n">
-        <v>101.3196431</v>
+        <v>99.10775624</v>
       </c>
       <c r="G124" t="n">
-        <v>105.60415096</v>
+        <v>103.38785795</v>
       </c>
       <c r="H124" t="n">
-        <v>101.93691196</v>
+        <v>101.85120344</v>
       </c>
       <c r="I124" t="n">
-        <v>99.8632734</v>
+        <v>98.86541726</v>
       </c>
       <c r="J124" t="n">
-        <v>109.38994319</v>
+        <v>105.16506412</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.32487291</v>
+        <v>99.75505707000001</v>
       </c>
       <c r="C125" t="n">
-        <v>102.24508772</v>
+        <v>102.70597022</v>
       </c>
       <c r="D125" t="n">
-        <v>101.41493076</v>
+        <v>102.71410737</v>
       </c>
       <c r="E125" t="n">
-        <v>97.99798903999999</v>
+        <v>100.13604959</v>
       </c>
       <c r="F125" t="n">
-        <v>98.72706556999999</v>
+        <v>99.35799394999999</v>
       </c>
       <c r="G125" t="n">
-        <v>102.72971342</v>
+        <v>104.59613265</v>
       </c>
       <c r="H125" t="n">
-        <v>101.68306726</v>
+        <v>101.87116689</v>
       </c>
       <c r="I125" t="n">
-        <v>99.77533895000001</v>
+        <v>98.61479712000001</v>
       </c>
       <c r="J125" t="n">
-        <v>103.67021581</v>
+        <v>105.91115462</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>99.94590438</v>
+        <v>99.90734203</v>
       </c>
       <c r="C126" t="n">
-        <v>102.3272535</v>
+        <v>103.10081368</v>
       </c>
       <c r="D126" t="n">
-        <v>102.60991682</v>
+        <v>102.91394719</v>
       </c>
       <c r="E126" t="n">
-        <v>100.58995525</v>
+        <v>100.38038967</v>
       </c>
       <c r="F126" t="n">
-        <v>99.08484273000001</v>
+        <v>99.53315288</v>
       </c>
       <c r="G126" t="n">
-        <v>103.13011908</v>
+        <v>105.12803382</v>
       </c>
       <c r="H126" t="n">
-        <v>101.70117613</v>
+        <v>101.91368718</v>
       </c>
       <c r="I126" t="n">
-        <v>98.47757673</v>
+        <v>98.71978546</v>
       </c>
       <c r="J126" t="n">
-        <v>106.20208725</v>
+        <v>105.95534171</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99.78239531</v>
+        <v>99.52709772</v>
       </c>
       <c r="C127" t="n">
-        <v>102.45182296</v>
+        <v>103.20804949</v>
       </c>
       <c r="D127" t="n">
-        <v>102.25851291</v>
+        <v>102.83716045</v>
       </c>
       <c r="E127" t="n">
-        <v>99.91778273</v>
+        <v>100.76772231</v>
       </c>
       <c r="F127" t="n">
-        <v>99.10775624</v>
+        <v>99.8927671</v>
       </c>
       <c r="G127" t="n">
-        <v>103.38785795</v>
+        <v>105.10896246</v>
       </c>
       <c r="H127" t="n">
-        <v>101.85120344</v>
+        <v>101.85880875</v>
       </c>
       <c r="I127" t="n">
-        <v>98.86541726</v>
+        <v>98.86887034999999</v>
       </c>
       <c r="J127" t="n">
-        <v>105.16506412</v>
+        <v>105.54128776</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>99.75505707000001</v>
+        <v>99.15445513</v>
       </c>
       <c r="C128" t="n">
-        <v>102.70597022</v>
+        <v>103.27775826</v>
       </c>
       <c r="D128" t="n">
-        <v>102.71410737</v>
+        <v>103.22340209</v>
       </c>
       <c r="E128" t="n">
-        <v>100.13604959</v>
+        <v>100.95639377</v>
       </c>
       <c r="F128" t="n">
-        <v>99.35799394999999</v>
+        <v>100.21385356</v>
       </c>
       <c r="G128" t="n">
-        <v>104.59613265</v>
+        <v>104.83443313</v>
       </c>
       <c r="H128" t="n">
-        <v>101.87116689</v>
+        <v>101.74882724</v>
       </c>
       <c r="I128" t="n">
-        <v>98.61479712000001</v>
+        <v>99.21388193999999</v>
       </c>
       <c r="J128" t="n">
-        <v>105.91115462</v>
+        <v>106.74075216</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>99.90734203</v>
+        <v>99.24271864000001</v>
       </c>
       <c r="C129" t="n">
-        <v>103.10081368</v>
+        <v>103.26767061</v>
       </c>
       <c r="D129" t="n">
-        <v>102.91394719</v>
+        <v>103.38943934</v>
       </c>
       <c r="E129" t="n">
-        <v>100.38038967</v>
+        <v>101.16314628</v>
       </c>
       <c r="F129" t="n">
-        <v>99.53315288</v>
+        <v>100.4191133</v>
       </c>
       <c r="G129" t="n">
-        <v>105.12803382</v>
+        <v>104.47520306</v>
       </c>
       <c r="H129" t="n">
-        <v>101.91368718</v>
+        <v>101.61526304</v>
       </c>
       <c r="I129" t="n">
-        <v>98.71978546</v>
+        <v>98.8423751</v>
       </c>
       <c r="J129" t="n">
-        <v>105.95534171</v>
+        <v>107.37663615</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>99.52709772</v>
+        <v>99.09051530000001</v>
       </c>
       <c r="C130" t="n">
-        <v>103.20804949</v>
+        <v>103.36285058</v>
       </c>
       <c r="D130" t="n">
-        <v>102.83716045</v>
+        <v>103.50032933</v>
       </c>
       <c r="E130" t="n">
-        <v>100.76772231</v>
+        <v>101.1917774</v>
       </c>
       <c r="F130" t="n">
-        <v>99.8927671</v>
+        <v>100.35162089</v>
       </c>
       <c r="G130" t="n">
-        <v>105.10896246</v>
+        <v>104.33048535</v>
       </c>
       <c r="H130" t="n">
-        <v>101.85880875</v>
+        <v>101.44192869</v>
       </c>
       <c r="I130" t="n">
-        <v>98.86887034999999</v>
+        <v>98.32317913999999</v>
       </c>
       <c r="J130" t="n">
-        <v>105.54128776</v>
+        <v>107.97724172</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.15445513</v>
+        <v>99.28926154</v>
       </c>
       <c r="C131" t="n">
-        <v>103.27775826</v>
+        <v>103.7360281</v>
       </c>
       <c r="D131" t="n">
-        <v>103.22340209</v>
+        <v>104.24479606</v>
       </c>
       <c r="E131" t="n">
-        <v>100.95639377</v>
+        <v>100.73854169</v>
       </c>
       <c r="F131" t="n">
-        <v>100.21385356</v>
+        <v>100.46310978</v>
       </c>
       <c r="G131" t="n">
-        <v>104.83443313</v>
+        <v>104.74954946</v>
       </c>
       <c r="H131" t="n">
-        <v>101.74882724</v>
+        <v>101.61354438</v>
       </c>
       <c r="I131" t="n">
-        <v>99.21388193999999</v>
+        <v>98.42376514999999</v>
       </c>
       <c r="J131" t="n">
-        <v>106.74075216</v>
+        <v>110.04461625</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>99.24271864000001</v>
+        <v>99.06847254</v>
       </c>
       <c r="C132" t="n">
-        <v>103.26767061</v>
+        <v>104.10273921</v>
       </c>
       <c r="D132" t="n">
-        <v>103.38943934</v>
+        <v>104.91956906</v>
       </c>
       <c r="E132" t="n">
-        <v>101.16314628</v>
+        <v>100.45790955</v>
       </c>
       <c r="F132" t="n">
-        <v>100.4191133</v>
+        <v>100.74848998</v>
       </c>
       <c r="G132" t="n">
-        <v>104.47520306</v>
+        <v>105.4955805</v>
       </c>
       <c r="H132" t="n">
-        <v>101.61526304</v>
+        <v>101.73270826</v>
       </c>
       <c r="I132" t="n">
-        <v>98.8423751</v>
+        <v>99.04463232000001</v>
       </c>
       <c r="J132" t="n">
-        <v>107.37663615</v>
+        <v>111.58923022</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>99.09051530000001</v>
+        <v>99.08627489</v>
       </c>
       <c r="C133" t="n">
-        <v>103.36285058</v>
+        <v>104.05923992</v>
       </c>
       <c r="D133" t="n">
-        <v>103.50032933</v>
+        <v>104.38865595</v>
       </c>
       <c r="E133" t="n">
-        <v>101.1917774</v>
+        <v>100.59647177</v>
       </c>
       <c r="F133" t="n">
-        <v>100.35162089</v>
+        <v>101.3196431</v>
       </c>
       <c r="G133" t="n">
-        <v>104.33048535</v>
+        <v>105.60415096</v>
       </c>
       <c r="H133" t="n">
-        <v>101.44192869</v>
+        <v>101.93691196</v>
       </c>
       <c r="I133" t="n">
-        <v>98.32317913999999</v>
+        <v>99.8632734</v>
       </c>
       <c r="J133" t="n">
-        <v>107.97724172</v>
+        <v>109.38994319</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>100.45403965</v>
+        <v>99.72010928</v>
       </c>
       <c r="C134" t="n">
-        <v>103.43915175</v>
+        <v>103.25837505</v>
       </c>
       <c r="D134" t="n">
-        <v>105.37047274</v>
+        <v>104.80750868</v>
       </c>
       <c r="E134" t="n">
-        <v>99.85172147999999</v>
+        <v>100.97179475</v>
       </c>
       <c r="F134" t="n">
-        <v>103.47489389</v>
+        <v>101.62696509</v>
       </c>
       <c r="G134" t="n">
-        <v>104.36610419</v>
+        <v>106.80462564</v>
       </c>
       <c r="H134" t="n">
-        <v>104.00716028</v>
+        <v>101.92464809</v>
       </c>
       <c r="I134" t="n">
-        <v>103.91793635</v>
+        <v>99.56716215</v>
       </c>
       <c r="J134" t="n">
-        <v>111.74229351</v>
+        <v>110.21128929</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>100.24905936</v>
+        <v>99.44307568000001</v>
       </c>
       <c r="C135" t="n">
-        <v>103.13912454</v>
+        <v>103.06860526</v>
       </c>
       <c r="D135" t="n">
-        <v>104.18568636</v>
+        <v>104.7538202</v>
       </c>
       <c r="E135" t="n">
-        <v>99.94384749</v>
+        <v>100.23512667</v>
       </c>
       <c r="F135" t="n">
-        <v>103.31415484</v>
+        <v>101.63392011</v>
       </c>
       <c r="G135" t="n">
-        <v>102.95992887</v>
+        <v>105.88209046</v>
       </c>
       <c r="H135" t="n">
-        <v>104.21590081</v>
+        <v>102.0338377</v>
       </c>
       <c r="I135" t="n">
-        <v>103.58535916</v>
+        <v>100.33438615</v>
       </c>
       <c r="J135" t="n">
-        <v>108.84735648</v>
+        <v>110.7067133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>100.026485</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>102.66647261</v>
+        <v>103.2</v>
       </c>
       <c r="D136" t="n">
-        <v>104.05731812</v>
+        <v>105.2248</v>
       </c>
       <c r="E136" t="n">
-        <v>99.97053934</v>
+        <v>100.4</v>
       </c>
       <c r="F136" t="n">
-        <v>102.74070357</v>
+        <v>102.2</v>
       </c>
       <c r="G136" t="n">
-        <v>101.98567638</v>
+        <v>106.4</v>
       </c>
       <c r="H136" t="n">
-        <v>104.19852282</v>
+        <v>102.2</v>
       </c>
       <c r="I136" t="n">
-        <v>103.74904794</v>
+        <v>100.8</v>
       </c>
       <c r="J136" t="n">
-        <v>109.27978884</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.72010928</v>
+        <v>100.3</v>
       </c>
       <c r="C137" t="n">
-        <v>103.25837505</v>
+        <v>103.2</v>
       </c>
       <c r="D137" t="n">
-        <v>104.80750868</v>
+        <v>105.1774</v>
       </c>
       <c r="E137" t="n">
-        <v>100.97179475</v>
+        <v>100.4</v>
       </c>
       <c r="F137" t="n">
-        <v>101.62696509</v>
+        <v>102.4</v>
       </c>
       <c r="G137" t="n">
-        <v>106.80462564</v>
+        <v>105.9</v>
       </c>
       <c r="H137" t="n">
-        <v>101.92464809</v>
+        <v>102.5</v>
       </c>
       <c r="I137" t="n">
-        <v>99.56716215</v>
+        <v>101.5</v>
       </c>
       <c r="J137" t="n">
-        <v>110.21128929</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.44307568000001</v>
+        <v>100.4</v>
       </c>
       <c r="C138" t="n">
-        <v>103.06860526</v>
+        <v>103.3</v>
       </c>
       <c r="D138" t="n">
-        <v>104.7538202</v>
+        <v>105.3458</v>
       </c>
       <c r="E138" t="n">
-        <v>100.23512667</v>
+        <v>100.5</v>
       </c>
       <c r="F138" t="n">
-        <v>101.63392011</v>
+        <v>102.8</v>
       </c>
       <c r="G138" t="n">
-        <v>105.88209046</v>
+        <v>106</v>
       </c>
       <c r="H138" t="n">
-        <v>102.0338377</v>
+        <v>102.8</v>
       </c>
       <c r="I138" t="n">
-        <v>100.33438615</v>
+        <v>101.9</v>
       </c>
       <c r="J138" t="n">
-        <v>110.7067133</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C139" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="D139" t="n">
-        <v>105.2248</v>
+        <v>106.1535</v>
       </c>
       <c r="E139" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="F139" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="G139" t="n">
+        <v>106</v>
+      </c>
+      <c r="H139" t="n">
+        <v>103</v>
+      </c>
+      <c r="I139" t="n">
         <v>102.2</v>
       </c>
-      <c r="G139" t="n">
-        <v>106.4</v>
-      </c>
-      <c r="H139" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>100.8</v>
-      </c>
       <c r="J139" t="n">
-        <v>111.5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>100.3</v>
+        <v>100.58024966</v>
       </c>
       <c r="C140" t="n">
-        <v>103.2</v>
+        <v>103.63295362</v>
       </c>
       <c r="D140" t="n">
-        <v>105.1774</v>
+        <v>106.24118501</v>
       </c>
       <c r="E140" t="n">
-        <v>100.4</v>
+        <v>100.33608134</v>
       </c>
       <c r="F140" t="n">
-        <v>102.4</v>
+        <v>103.01525388</v>
       </c>
       <c r="G140" t="n">
-        <v>105.9</v>
+        <v>105.66007359</v>
       </c>
       <c r="H140" t="n">
-        <v>102.5</v>
+        <v>103.00977952</v>
       </c>
       <c r="I140" t="n">
-        <v>101.5</v>
+        <v>102.42092143</v>
       </c>
       <c r="J140" t="n">
-        <v>111.2</v>
+        <v>114.39712669</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>100.4</v>
+        <v>100.71888155</v>
       </c>
       <c r="C141" t="n">
-        <v>103.3</v>
+        <v>104.19887822</v>
       </c>
       <c r="D141" t="n">
-        <v>105.3458</v>
+        <v>105.94233245</v>
       </c>
       <c r="E141" t="n">
-        <v>100.5</v>
+        <v>100.21550631</v>
       </c>
       <c r="F141" t="n">
-        <v>102.8</v>
+        <v>103.12774946</v>
       </c>
       <c r="G141" t="n">
-        <v>106</v>
+        <v>105.23075864</v>
       </c>
       <c r="H141" t="n">
-        <v>102.8</v>
+        <v>103.02187372</v>
       </c>
       <c r="I141" t="n">
-        <v>101.9</v>
+        <v>103.10063523</v>
       </c>
       <c r="J141" t="n">
-        <v>111.4</v>
+        <v>113.12781026</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>100.6</v>
+        <v>100.68432774</v>
       </c>
       <c r="C142" t="n">
-        <v>103.4</v>
+        <v>104.13272942</v>
       </c>
       <c r="D142" t="n">
-        <v>106.1535</v>
+        <v>105.90490589</v>
       </c>
       <c r="E142" t="n">
-        <v>100.5</v>
+        <v>99.83334612</v>
       </c>
       <c r="F142" t="n">
-        <v>102.8</v>
+        <v>103.3663996</v>
       </c>
       <c r="G142" t="n">
-        <v>106</v>
+        <v>104.90501163</v>
       </c>
       <c r="H142" t="n">
-        <v>103</v>
+        <v>103.62795997</v>
       </c>
       <c r="I142" t="n">
-        <v>102.2</v>
+        <v>103.37469331</v>
       </c>
       <c r="J142" t="n">
-        <v>114</v>
+        <v>113.16092727</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>100.58024966</v>
+        <v>100.45403965</v>
       </c>
       <c r="C143" t="n">
-        <v>103.63295362</v>
+        <v>103.43915175</v>
       </c>
       <c r="D143" t="n">
-        <v>106.24118501</v>
+        <v>105.37047274</v>
       </c>
       <c r="E143" t="n">
-        <v>100.33608134</v>
+        <v>99.85172147999999</v>
       </c>
       <c r="F143" t="n">
-        <v>103.01525388</v>
+        <v>103.47489389</v>
       </c>
       <c r="G143" t="n">
-        <v>105.66007359</v>
+        <v>104.36610419</v>
       </c>
       <c r="H143" t="n">
-        <v>103.00977952</v>
+        <v>104.00716028</v>
       </c>
       <c r="I143" t="n">
-        <v>102.42092143</v>
+        <v>103.91793635</v>
       </c>
       <c r="J143" t="n">
-        <v>114.39712669</v>
+        <v>111.74229351</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>100.71888155</v>
+        <v>100.24905936</v>
       </c>
       <c r="C144" t="n">
-        <v>104.19887822</v>
+        <v>103.13912454</v>
       </c>
       <c r="D144" t="n">
-        <v>105.94233245</v>
+        <v>104.18568636</v>
       </c>
       <c r="E144" t="n">
-        <v>100.21550631</v>
+        <v>99.94384749</v>
       </c>
       <c r="F144" t="n">
-        <v>103.12774946</v>
+        <v>103.31415484</v>
       </c>
       <c r="G144" t="n">
-        <v>105.23075864</v>
+        <v>102.95992887</v>
       </c>
       <c r="H144" t="n">
-        <v>103.02187372</v>
+        <v>104.21590081</v>
       </c>
       <c r="I144" t="n">
-        <v>103.10063523</v>
+        <v>103.58535916</v>
       </c>
       <c r="J144" t="n">
-        <v>113.12781026</v>
+        <v>108.84735648</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100.68432774</v>
+        <v>100.026485</v>
       </c>
       <c r="C145" t="n">
-        <v>104.13272942</v>
+        <v>102.66647261</v>
       </c>
       <c r="D145" t="n">
-        <v>105.90490589</v>
+        <v>104.05731812</v>
       </c>
       <c r="E145" t="n">
-        <v>99.83334612</v>
+        <v>99.97053934</v>
       </c>
       <c r="F145" t="n">
-        <v>103.3663996</v>
+        <v>102.74070357</v>
       </c>
       <c r="G145" t="n">
-        <v>104.90501163</v>
+        <v>101.98567638</v>
       </c>
       <c r="H145" t="n">
-        <v>103.62795997</v>
+        <v>104.19852282</v>
       </c>
       <c r="I145" t="n">
-        <v>103.37469331</v>
+        <v>103.74904794</v>
       </c>
       <c r="J145" t="n">
-        <v>113.16092727</v>
+        <v>109.27978884</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>99.94965743</v>
+        <v>99.86889197000001</v>
       </c>
       <c r="C146" t="n">
-        <v>101.75865576</v>
+        <v>102.49744567</v>
       </c>
       <c r="D146" t="n">
-        <v>101.79438527</v>
+        <v>104.53781401</v>
       </c>
       <c r="E146" t="n">
-        <v>100.96018578</v>
+        <v>100.67463297</v>
       </c>
       <c r="F146" t="n">
-        <v>101.63483138</v>
+        <v>102.84236285</v>
       </c>
       <c r="G146" t="n">
-        <v>102.66829763</v>
+        <v>101.89370778</v>
       </c>
       <c r="H146" t="n">
-        <v>101.82642686</v>
+        <v>104.04828869</v>
       </c>
       <c r="I146" t="n">
-        <v>102.50703537</v>
+        <v>103.23970135</v>
       </c>
       <c r="J146" t="n">
-        <v>102.05972556</v>
+        <v>110.72719545</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>99.85347784</v>
+        <v>99.88149262</v>
       </c>
       <c r="C147" t="n">
-        <v>101.57785798</v>
+        <v>102.66440156</v>
       </c>
       <c r="D147" t="n">
-        <v>102.0742889</v>
+        <v>103.16099104</v>
       </c>
       <c r="E147" t="n">
-        <v>100.80295562</v>
+        <v>99.29455754999999</v>
       </c>
       <c r="F147" t="n">
-        <v>101.60314934</v>
+        <v>102.74955746</v>
       </c>
       <c r="G147" t="n">
-        <v>102.81584388</v>
+        <v>102.0812231</v>
       </c>
       <c r="H147" t="n">
-        <v>101.51116389</v>
+        <v>104.02081499</v>
       </c>
       <c r="I147" t="n">
-        <v>102.10127695</v>
+        <v>103.77062863</v>
       </c>
       <c r="J147" t="n">
-        <v>103.13970201</v>
+        <v>106.42367198</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>99.80291409</v>
+        <v>100.02539779</v>
       </c>
       <c r="C148" t="n">
-        <v>101.72767138</v>
+        <v>102.46853673</v>
       </c>
       <c r="D148" t="n">
-        <v>102.51402829</v>
+        <v>103.58790558</v>
       </c>
       <c r="E148" t="n">
-        <v>100.96074588</v>
+        <v>99.92580021000001</v>
       </c>
       <c r="F148" t="n">
-        <v>101.75619192</v>
+        <v>102.36951674</v>
       </c>
       <c r="G148" t="n">
-        <v>103.21747616</v>
+        <v>101.90624546</v>
       </c>
       <c r="H148" t="n">
-        <v>101.2480834</v>
+        <v>103.84876115</v>
       </c>
       <c r="I148" t="n">
-        <v>101.84093037</v>
+        <v>103.59922795</v>
       </c>
       <c r="J148" t="n">
-        <v>104.24271062</v>
+        <v>107.7993074</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>99.86889197000001</v>
+        <v>100.05142752</v>
       </c>
       <c r="C149" t="n">
-        <v>102.49744567</v>
+        <v>102.44441725</v>
       </c>
       <c r="D149" t="n">
-        <v>104.53781401</v>
+        <v>103.37780759</v>
       </c>
       <c r="E149" t="n">
-        <v>100.67463297</v>
+        <v>100.2112945</v>
       </c>
       <c r="F149" t="n">
-        <v>102.84236285</v>
+        <v>102.34161275</v>
       </c>
       <c r="G149" t="n">
-        <v>101.89370778</v>
+        <v>101.7140543</v>
       </c>
       <c r="H149" t="n">
-        <v>104.04828869</v>
+        <v>103.69726288</v>
       </c>
       <c r="I149" t="n">
-        <v>103.23970135</v>
+        <v>103.38049835</v>
       </c>
       <c r="J149" t="n">
-        <v>110.72719545</v>
+        <v>107.24634103</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>99.88149262</v>
+        <v>99.66061449</v>
       </c>
       <c r="C150" t="n">
-        <v>102.66440156</v>
+        <v>102.06710514</v>
       </c>
       <c r="D150" t="n">
-        <v>103.16099104</v>
+        <v>103.03407678</v>
       </c>
       <c r="E150" t="n">
-        <v>99.29455754999999</v>
+        <v>100.09255146</v>
       </c>
       <c r="F150" t="n">
-        <v>102.74955746</v>
+        <v>102.08861275</v>
       </c>
       <c r="G150" t="n">
-        <v>102.0812231</v>
+        <v>101.52942752</v>
       </c>
       <c r="H150" t="n">
-        <v>104.02081499</v>
+        <v>103.48759681</v>
       </c>
       <c r="I150" t="n">
-        <v>103.77062863</v>
+        <v>102.83245329</v>
       </c>
       <c r="J150" t="n">
-        <v>106.42367198</v>
+        <v>106.78967933</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>100.02539779</v>
+        <v>99.37430367</v>
       </c>
       <c r="C151" t="n">
-        <v>102.46853673</v>
+        <v>101.87673758</v>
       </c>
       <c r="D151" t="n">
-        <v>103.58790558</v>
+        <v>102.20138826</v>
       </c>
       <c r="E151" t="n">
-        <v>99.92580021000001</v>
+        <v>100.11226251</v>
       </c>
       <c r="F151" t="n">
-        <v>102.36951674</v>
+        <v>102.00816804</v>
       </c>
       <c r="G151" t="n">
-        <v>101.90624546</v>
+        <v>101.68042277</v>
       </c>
       <c r="H151" t="n">
-        <v>103.84876115</v>
+        <v>103.32704326</v>
       </c>
       <c r="I151" t="n">
-        <v>103.59922795</v>
+        <v>102.95507159</v>
       </c>
       <c r="J151" t="n">
-        <v>107.7993074</v>
+        <v>104.15766791</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>100.05142752</v>
+        <v>98.95816666</v>
       </c>
       <c r="C152" t="n">
-        <v>102.44441725</v>
+        <v>101.71632946</v>
       </c>
       <c r="D152" t="n">
-        <v>103.37780759</v>
+        <v>101.8789938</v>
       </c>
       <c r="E152" t="n">
-        <v>100.2112945</v>
+        <v>100.28834504</v>
       </c>
       <c r="F152" t="n">
-        <v>102.34161275</v>
+        <v>102.04428542</v>
       </c>
       <c r="G152" t="n">
-        <v>101.7140543</v>
+        <v>102.26632572</v>
       </c>
       <c r="H152" t="n">
-        <v>103.69726288</v>
+        <v>103.12118494</v>
       </c>
       <c r="I152" t="n">
-        <v>103.38049835</v>
+        <v>102.99697221</v>
       </c>
       <c r="J152" t="n">
-        <v>107.24634103</v>
+        <v>102.8919894</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>99.66061449</v>
+        <v>99.00488432</v>
       </c>
       <c r="C153" t="n">
-        <v>102.06710514</v>
+        <v>101.25108585</v>
       </c>
       <c r="D153" t="n">
-        <v>103.03407678</v>
+        <v>102.12836075</v>
       </c>
       <c r="E153" t="n">
-        <v>100.09255146</v>
+        <v>100.29596222</v>
       </c>
       <c r="F153" t="n">
-        <v>102.08861275</v>
+        <v>101.87638757</v>
       </c>
       <c r="G153" t="n">
-        <v>101.52942752</v>
+        <v>102.37268392</v>
       </c>
       <c r="H153" t="n">
-        <v>103.48759681</v>
+        <v>102.9677259</v>
       </c>
       <c r="I153" t="n">
-        <v>102.83245329</v>
+        <v>102.81463447</v>
       </c>
       <c r="J153" t="n">
-        <v>106.78967933</v>
+        <v>103.81581039</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>99.37430367</v>
+        <v>99.54657002</v>
       </c>
       <c r="C154" t="n">
-        <v>101.87673758</v>
+        <v>101.40848294</v>
       </c>
       <c r="D154" t="n">
-        <v>102.20138826</v>
+        <v>101.99373756</v>
       </c>
       <c r="E154" t="n">
-        <v>100.11226251</v>
+        <v>100.91795126</v>
       </c>
       <c r="F154" t="n">
-        <v>102.00816804</v>
+        <v>101.72770622</v>
       </c>
       <c r="G154" t="n">
-        <v>101.68042277</v>
+        <v>102.46580635</v>
       </c>
       <c r="H154" t="n">
-        <v>103.32704326</v>
+        <v>102.29993693</v>
       </c>
       <c r="I154" t="n">
-        <v>102.95507159</v>
+        <v>103.20660674</v>
       </c>
       <c r="J154" t="n">
-        <v>104.15766791</v>
+        <v>102.82079099</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>98.95816666</v>
+        <v>99.94965743</v>
       </c>
       <c r="C155" t="n">
-        <v>101.71632946</v>
+        <v>101.75865576</v>
       </c>
       <c r="D155" t="n">
-        <v>101.8789938</v>
+        <v>101.79438527</v>
       </c>
       <c r="E155" t="n">
-        <v>100.28834504</v>
+        <v>100.96018578</v>
       </c>
       <c r="F155" t="n">
-        <v>102.04428542</v>
+        <v>101.63483138</v>
       </c>
       <c r="G155" t="n">
-        <v>102.26632572</v>
+        <v>102.66829763</v>
       </c>
       <c r="H155" t="n">
-        <v>103.12118494</v>
+        <v>101.82642686</v>
       </c>
       <c r="I155" t="n">
-        <v>102.99697221</v>
+        <v>102.50703537</v>
       </c>
       <c r="J155" t="n">
-        <v>102.8919894</v>
+        <v>102.05972556</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>99.00488432</v>
+        <v>99.85347784</v>
       </c>
       <c r="C156" t="n">
-        <v>101.25108585</v>
+        <v>101.57785798</v>
       </c>
       <c r="D156" t="n">
-        <v>102.12836075</v>
+        <v>102.0742889</v>
       </c>
       <c r="E156" t="n">
-        <v>100.29596222</v>
+        <v>100.80295562</v>
       </c>
       <c r="F156" t="n">
-        <v>101.87638757</v>
+        <v>101.60314934</v>
       </c>
       <c r="G156" t="n">
-        <v>102.37268392</v>
+        <v>102.81584388</v>
       </c>
       <c r="H156" t="n">
-        <v>102.9677259</v>
+        <v>101.51116389</v>
       </c>
       <c r="I156" t="n">
-        <v>102.81463447</v>
+        <v>102.10127695</v>
       </c>
       <c r="J156" t="n">
-        <v>103.81581039</v>
+        <v>103.13970201</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>99.54657002</v>
+        <v>99.80291409</v>
       </c>
       <c r="C157" t="n">
-        <v>101.40848294</v>
+        <v>101.72767138</v>
       </c>
       <c r="D157" t="n">
-        <v>101.99373756</v>
+        <v>102.51402829</v>
       </c>
       <c r="E157" t="n">
-        <v>100.91795126</v>
+        <v>100.96074588</v>
       </c>
       <c r="F157" t="n">
-        <v>101.72770622</v>
+        <v>101.75619192</v>
       </c>
       <c r="G157" t="n">
-        <v>102.46580635</v>
+        <v>103.21747616</v>
       </c>
       <c r="H157" t="n">
-        <v>102.29993693</v>
+        <v>101.2480834</v>
       </c>
       <c r="I157" t="n">
-        <v>103.20660674</v>
+        <v>101.84093037</v>
       </c>
       <c r="J157" t="n">
-        <v>102.82079099</v>
+        <v>104.24271062</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99.24456944000001</v>
+        <v>99.59581451</v>
       </c>
       <c r="C158" t="n">
-        <v>100.7457294</v>
+        <v>101.77716114</v>
       </c>
       <c r="D158" t="n">
-        <v>103.16645302</v>
+        <v>101.9790712</v>
       </c>
       <c r="E158" t="n">
-        <v>102.49893804</v>
+        <v>100.32498728</v>
       </c>
       <c r="F158" t="n">
-        <v>101.56435417</v>
+        <v>101.58760486</v>
       </c>
       <c r="G158" t="n">
-        <v>102.67684719</v>
+        <v>103.17414234</v>
       </c>
       <c r="H158" t="n">
-        <v>99.657583</v>
+        <v>101.12525129</v>
       </c>
       <c r="I158" t="n">
-        <v>102.39119726</v>
+        <v>102.51361097</v>
       </c>
       <c r="J158" t="n">
-        <v>106.50318012</v>
+        <v>102.72100286</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>99.34578642</v>
+        <v>100.05905244</v>
       </c>
       <c r="C159" t="n">
-        <v>100.73119057</v>
+        <v>101.68589673</v>
       </c>
       <c r="D159" t="n">
-        <v>102.99406321</v>
+        <v>103.19353809</v>
       </c>
       <c r="E159" t="n">
-        <v>102.91842877</v>
+        <v>102.07581965</v>
       </c>
       <c r="F159" t="n">
-        <v>101.35615875</v>
+        <v>101.72408529</v>
       </c>
       <c r="G159" t="n">
-        <v>102.70040822</v>
+        <v>102.98755505</v>
       </c>
       <c r="H159" t="n">
-        <v>99.64311038</v>
+        <v>100.81061544</v>
       </c>
       <c r="I159" t="n">
-        <v>101.87221977</v>
+        <v>102.01784349</v>
       </c>
       <c r="J159" t="n">
-        <v>105.93271876</v>
+        <v>105.90545661</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>99.8026081</v>
+        <v>99.55802983</v>
       </c>
       <c r="C160" t="n">
-        <v>100.66266129</v>
+        <v>101.59396828</v>
       </c>
       <c r="D160" t="n">
-        <v>102.49780555</v>
+        <v>102.02826153</v>
       </c>
       <c r="E160" t="n">
-        <v>102.97663266</v>
+        <v>101.7473681</v>
       </c>
       <c r="F160" t="n">
-        <v>101.34413213</v>
+        <v>101.74270706</v>
       </c>
       <c r="G160" t="n">
-        <v>102.87736234</v>
+        <v>103.17462076</v>
       </c>
       <c r="H160" t="n">
-        <v>99.53602969000001</v>
+        <v>100.72424695</v>
       </c>
       <c r="I160" t="n">
-        <v>101.97553295</v>
+        <v>102.16868874</v>
       </c>
       <c r="J160" t="n">
-        <v>104.06342632</v>
+        <v>102.51128335</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.59581451</v>
+        <v>98.72204929</v>
       </c>
       <c r="C161" t="n">
-        <v>101.77716114</v>
+        <v>101.33302264</v>
       </c>
       <c r="D161" t="n">
-        <v>101.9790712</v>
+        <v>102.3693515</v>
       </c>
       <c r="E161" t="n">
-        <v>100.32498728</v>
+        <v>101.45833534</v>
       </c>
       <c r="F161" t="n">
-        <v>101.58760486</v>
+        <v>101.65737989</v>
       </c>
       <c r="G161" t="n">
-        <v>103.17414234</v>
+        <v>103.16370063</v>
       </c>
       <c r="H161" t="n">
-        <v>101.12525129</v>
+        <v>100.48676921</v>
       </c>
       <c r="I161" t="n">
-        <v>102.51361097</v>
+        <v>102.38804473</v>
       </c>
       <c r="J161" t="n">
-        <v>102.72100286</v>
+        <v>104.00361373</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>100.05905244</v>
+        <v>98.64341048</v>
       </c>
       <c r="C162" t="n">
-        <v>101.68589673</v>
+        <v>101.2933857</v>
       </c>
       <c r="D162" t="n">
-        <v>103.19353809</v>
+        <v>102.05057448</v>
       </c>
       <c r="E162" t="n">
-        <v>102.07581965</v>
+        <v>101.21600536</v>
       </c>
       <c r="F162" t="n">
-        <v>101.72408529</v>
+        <v>101.65459665</v>
       </c>
       <c r="G162" t="n">
-        <v>102.98755505</v>
+        <v>103.23788156</v>
       </c>
       <c r="H162" t="n">
-        <v>100.81061544</v>
+        <v>100.20652994</v>
       </c>
       <c r="I162" t="n">
-        <v>102.01784349</v>
+        <v>102.46778898</v>
       </c>
       <c r="J162" t="n">
-        <v>105.90545661</v>
+        <v>103.11066947</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>99.55802983</v>
+        <v>99.10287475</v>
       </c>
       <c r="C163" t="n">
-        <v>101.59396828</v>
+        <v>101.1639182</v>
       </c>
       <c r="D163" t="n">
-        <v>102.02826153</v>
+        <v>102.61979586</v>
       </c>
       <c r="E163" t="n">
-        <v>101.7473681</v>
+        <v>101.28084234</v>
       </c>
       <c r="F163" t="n">
-        <v>101.74270706</v>
+        <v>101.5571524</v>
       </c>
       <c r="G163" t="n">
-        <v>103.17462076</v>
+        <v>103.25282443</v>
       </c>
       <c r="H163" t="n">
-        <v>100.72424695</v>
+        <v>99.99016691999999</v>
       </c>
       <c r="I163" t="n">
-        <v>102.16868874</v>
+        <v>102.16767922</v>
       </c>
       <c r="J163" t="n">
-        <v>102.51128335</v>
+        <v>104.86822257</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>98.72204929</v>
+        <v>99.7827887</v>
       </c>
       <c r="C164" t="n">
-        <v>101.33302264</v>
+        <v>101.00489579</v>
       </c>
       <c r="D164" t="n">
-        <v>102.3693515</v>
+        <v>102.59372839</v>
       </c>
       <c r="E164" t="n">
-        <v>101.45833534</v>
+        <v>101.23288211</v>
       </c>
       <c r="F164" t="n">
-        <v>101.65737989</v>
+        <v>101.40966961</v>
       </c>
       <c r="G164" t="n">
-        <v>103.16370063</v>
+        <v>102.85655484</v>
       </c>
       <c r="H164" t="n">
-        <v>100.48676921</v>
+        <v>99.92642902999999</v>
       </c>
       <c r="I164" t="n">
-        <v>102.38804473</v>
+        <v>102.09509328</v>
       </c>
       <c r="J164" t="n">
-        <v>104.00361373</v>
+        <v>104.90979561</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>98.64341048</v>
+        <v>99.9222417</v>
       </c>
       <c r="C165" t="n">
-        <v>101.2933857</v>
+        <v>100.99825051</v>
       </c>
       <c r="D165" t="n">
-        <v>102.05057448</v>
+        <v>102.46289992</v>
       </c>
       <c r="E165" t="n">
-        <v>101.21600536</v>
+        <v>101.12172327</v>
       </c>
       <c r="F165" t="n">
-        <v>101.65459665</v>
+        <v>101.41135007</v>
       </c>
       <c r="G165" t="n">
-        <v>103.23788156</v>
+        <v>102.70180029</v>
       </c>
       <c r="H165" t="n">
-        <v>100.20652994</v>
+        <v>99.87885901</v>
       </c>
       <c r="I165" t="n">
-        <v>102.46778898</v>
+        <v>102.18262286</v>
       </c>
       <c r="J165" t="n">
-        <v>103.11066947</v>
+        <v>104.54018558</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>99.10287475</v>
+        <v>99.70532033000001</v>
       </c>
       <c r="C166" t="n">
-        <v>101.1639182</v>
+        <v>100.87952899</v>
       </c>
       <c r="D166" t="n">
-        <v>102.61979586</v>
+        <v>102.98603788</v>
       </c>
       <c r="E166" t="n">
-        <v>101.28084234</v>
+        <v>101.94000042</v>
       </c>
       <c r="F166" t="n">
-        <v>101.5571524</v>
+        <v>101.40213765</v>
       </c>
       <c r="G166" t="n">
-        <v>103.25282443</v>
+        <v>102.73111216</v>
       </c>
       <c r="H166" t="n">
-        <v>99.99016691999999</v>
+        <v>99.66482228</v>
       </c>
       <c r="I166" t="n">
-        <v>102.16767922</v>
+        <v>102.17759054</v>
       </c>
       <c r="J166" t="n">
-        <v>104.86822257</v>
+        <v>105.97645157</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>99.7827887</v>
+        <v>99.24456944000001</v>
       </c>
       <c r="C167" t="n">
-        <v>101.00489579</v>
+        <v>100.7457294</v>
       </c>
       <c r="D167" t="n">
-        <v>102.59372839</v>
+        <v>103.16645302</v>
       </c>
       <c r="E167" t="n">
-        <v>101.23288211</v>
+        <v>102.49893804</v>
       </c>
       <c r="F167" t="n">
-        <v>101.40966961</v>
+        <v>101.56435417</v>
       </c>
       <c r="G167" t="n">
-        <v>102.85655484</v>
+        <v>102.67684719</v>
       </c>
       <c r="H167" t="n">
-        <v>99.92642902999999</v>
+        <v>99.657583</v>
       </c>
       <c r="I167" t="n">
-        <v>102.09509328</v>
+        <v>102.39119726</v>
       </c>
       <c r="J167" t="n">
-        <v>104.90979561</v>
+        <v>106.50318012</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>99.9222417</v>
+        <v>99.34578642</v>
       </c>
       <c r="C168" t="n">
-        <v>100.99825051</v>
+        <v>100.73119057</v>
       </c>
       <c r="D168" t="n">
-        <v>102.46289992</v>
+        <v>102.99406321</v>
       </c>
       <c r="E168" t="n">
-        <v>101.12172327</v>
+        <v>102.91842877</v>
       </c>
       <c r="F168" t="n">
-        <v>101.41135007</v>
+        <v>101.35615875</v>
       </c>
       <c r="G168" t="n">
-        <v>102.70180029</v>
+        <v>102.70040822</v>
       </c>
       <c r="H168" t="n">
-        <v>99.87885901</v>
+        <v>99.64311038</v>
       </c>
       <c r="I168" t="n">
-        <v>102.18262286</v>
+        <v>101.87221977</v>
       </c>
       <c r="J168" t="n">
-        <v>104.54018558</v>
+        <v>105.93271876</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>99.70532033000001</v>
+        <v>99.8026081</v>
       </c>
       <c r="C169" t="n">
-        <v>100.87952899</v>
+        <v>100.66266129</v>
       </c>
       <c r="D169" t="n">
-        <v>102.98603788</v>
+        <v>102.49780555</v>
       </c>
       <c r="E169" t="n">
-        <v>101.94000042</v>
+        <v>102.97663266</v>
       </c>
       <c r="F169" t="n">
-        <v>101.40213765</v>
+        <v>101.34413213</v>
       </c>
       <c r="G169" t="n">
-        <v>102.73111216</v>
+        <v>102.87736234</v>
       </c>
       <c r="H169" t="n">
-        <v>99.66482228</v>
+        <v>99.53602969000001</v>
       </c>
       <c r="I169" t="n">
-        <v>102.17759054</v>
+        <v>101.97553295</v>
       </c>
       <c r="J169" t="n">
-        <v>105.97645157</v>
+        <v>104.06342632</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>99.65486478</v>
+        <v>100.12997283</v>
       </c>
       <c r="C170" t="n">
-        <v>101.28588754</v>
+        <v>100.88114099</v>
       </c>
       <c r="D170" t="n">
-        <v>101.65972297</v>
+        <v>102.57529485</v>
       </c>
       <c r="E170" t="n">
-        <v>101.11308142</v>
+        <v>103.54791674</v>
       </c>
       <c r="F170" t="n">
-        <v>101.2096713</v>
+        <v>101.49140485</v>
       </c>
       <c r="G170" t="n">
-        <v>101.71840647</v>
+        <v>102.91547748</v>
       </c>
       <c r="H170" t="n">
-        <v>99.28004246</v>
+        <v>99.1954669</v>
       </c>
       <c r="I170" t="n">
-        <v>102.32681736</v>
+        <v>101.86458962</v>
       </c>
       <c r="J170" t="n">
-        <v>102.63023776</v>
+        <v>103.90090502</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99.17996481</v>
+        <v>99.48954206000001</v>
       </c>
       <c r="C171" t="n">
-        <v>101.24705449</v>
+        <v>100.85976139</v>
       </c>
       <c r="D171" t="n">
-        <v>101.49583782</v>
+        <v>102.05117051</v>
       </c>
       <c r="E171" t="n">
-        <v>101.00924833</v>
+        <v>102.0986567</v>
       </c>
       <c r="F171" t="n">
-        <v>101.16140297</v>
+        <v>101.22707587</v>
       </c>
       <c r="G171" t="n">
-        <v>101.44855565</v>
+        <v>102.91118615</v>
       </c>
       <c r="H171" t="n">
-        <v>99.1738486</v>
+        <v>99.29427713</v>
       </c>
       <c r="I171" t="n">
-        <v>102.65409956</v>
+        <v>102.25504987</v>
       </c>
       <c r="J171" t="n">
-        <v>102.41299024</v>
+        <v>102.95191794</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>98.57789909</v>
+        <v>99.51653349999999</v>
       </c>
       <c r="C172" t="n">
-        <v>101.50227752</v>
+        <v>101.03639278</v>
       </c>
       <c r="D172" t="n">
-        <v>101.56815491</v>
+        <v>102.4861238</v>
       </c>
       <c r="E172" t="n">
-        <v>100.86644546</v>
+        <v>102.14085244</v>
       </c>
       <c r="F172" t="n">
-        <v>101.09755269</v>
+        <v>101.23898372</v>
       </c>
       <c r="G172" t="n">
-        <v>101.10546986</v>
+        <v>102.54539145</v>
       </c>
       <c r="H172" t="n">
-        <v>99.19635393</v>
+        <v>99.29697896</v>
       </c>
       <c r="I172" t="n">
-        <v>102.72439902</v>
+        <v>102.31452956</v>
       </c>
       <c r="J172" t="n">
-        <v>102.98811598</v>
+        <v>104.41525806</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>100.12997283</v>
+        <v>99.98207359</v>
       </c>
       <c r="C173" t="n">
-        <v>100.88114099</v>
+        <v>101.08260056</v>
       </c>
       <c r="D173" t="n">
-        <v>102.57529485</v>
+        <v>101.8586462</v>
       </c>
       <c r="E173" t="n">
-        <v>103.54791674</v>
+        <v>102.0044755</v>
       </c>
       <c r="F173" t="n">
-        <v>101.49140485</v>
+        <v>101.21629239</v>
       </c>
       <c r="G173" t="n">
-        <v>102.91547748</v>
+        <v>102.4035808</v>
       </c>
       <c r="H173" t="n">
-        <v>99.1954669</v>
+        <v>99.28670993999999</v>
       </c>
       <c r="I173" t="n">
-        <v>101.86458962</v>
+        <v>102.27567677</v>
       </c>
       <c r="J173" t="n">
-        <v>103.90090502</v>
+        <v>102.4881176</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.48954206000001</v>
+        <v>100.51804718</v>
       </c>
       <c r="C174" t="n">
-        <v>100.85976139</v>
+        <v>101.18851205</v>
       </c>
       <c r="D174" t="n">
-        <v>102.05117051</v>
+        <v>102.52707952</v>
       </c>
       <c r="E174" t="n">
-        <v>102.0986567</v>
+        <v>102.20301081</v>
       </c>
       <c r="F174" t="n">
-        <v>101.22707587</v>
+        <v>101.17143207</v>
       </c>
       <c r="G174" t="n">
-        <v>102.91118615</v>
+        <v>102.33686578</v>
       </c>
       <c r="H174" t="n">
-        <v>99.29427713</v>
+        <v>99.35617784999999</v>
       </c>
       <c r="I174" t="n">
-        <v>102.25504987</v>
+        <v>102.49212426</v>
       </c>
       <c r="J174" t="n">
-        <v>102.95191794</v>
+        <v>104.25097975</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>99.51653349999999</v>
+        <v>100.57479022</v>
       </c>
       <c r="C175" t="n">
-        <v>101.03639278</v>
+        <v>101.27376396</v>
       </c>
       <c r="D175" t="n">
-        <v>102.4861238</v>
+        <v>102.40043053</v>
       </c>
       <c r="E175" t="n">
-        <v>102.14085244</v>
+        <v>102.16766518</v>
       </c>
       <c r="F175" t="n">
-        <v>101.23898372</v>
+        <v>101.24573335</v>
       </c>
       <c r="G175" t="n">
-        <v>102.54539145</v>
+        <v>102.2615707</v>
       </c>
       <c r="H175" t="n">
-        <v>99.29697896</v>
+        <v>99.37126381</v>
       </c>
       <c r="I175" t="n">
-        <v>102.31452956</v>
+        <v>102.65379217</v>
       </c>
       <c r="J175" t="n">
-        <v>104.41525806</v>
+        <v>103.82269081</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>99.98207359</v>
+        <v>100.63621985</v>
       </c>
       <c r="C176" t="n">
-        <v>101.08260056</v>
+        <v>101.45335056</v>
       </c>
       <c r="D176" t="n">
-        <v>101.8586462</v>
+        <v>102.33360791</v>
       </c>
       <c r="E176" t="n">
-        <v>102.0044755</v>
+        <v>102.23711137</v>
       </c>
       <c r="F176" t="n">
-        <v>101.21629239</v>
+        <v>101.14773232</v>
       </c>
       <c r="G176" t="n">
-        <v>102.4035808</v>
+        <v>102.01151052</v>
       </c>
       <c r="H176" t="n">
-        <v>99.28670993999999</v>
+        <v>99.37534936</v>
       </c>
       <c r="I176" t="n">
-        <v>102.27567677</v>
+        <v>102.68185566</v>
       </c>
       <c r="J176" t="n">
-        <v>102.4881176</v>
+        <v>103.68409363</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>100.51804718</v>
+        <v>100.13651925</v>
       </c>
       <c r="C177" t="n">
-        <v>101.18851205</v>
+        <v>101.35283218</v>
       </c>
       <c r="D177" t="n">
-        <v>102.52707952</v>
+        <v>102.0357036</v>
       </c>
       <c r="E177" t="n">
-        <v>102.20301081</v>
+        <v>101.99575371</v>
       </c>
       <c r="F177" t="n">
-        <v>101.17143207</v>
+        <v>101.10431386</v>
       </c>
       <c r="G177" t="n">
-        <v>102.33686578</v>
+        <v>101.85124506</v>
       </c>
       <c r="H177" t="n">
-        <v>99.35617784999999</v>
+        <v>99.21755432</v>
       </c>
       <c r="I177" t="n">
-        <v>102.49212426</v>
+        <v>102.65967147</v>
       </c>
       <c r="J177" t="n">
-        <v>104.25097975</v>
+        <v>103.15676176</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>100.57479022</v>
+        <v>99.63072479</v>
       </c>
       <c r="C178" t="n">
-        <v>101.27376396</v>
+        <v>101.17994314</v>
       </c>
       <c r="D178" t="n">
-        <v>102.40043053</v>
+        <v>101.69587079</v>
       </c>
       <c r="E178" t="n">
-        <v>102.16766518</v>
+        <v>102.01121982</v>
       </c>
       <c r="F178" t="n">
-        <v>101.24573335</v>
+        <v>101.12888763</v>
       </c>
       <c r="G178" t="n">
-        <v>102.2615707</v>
+        <v>101.66106477</v>
       </c>
       <c r="H178" t="n">
-        <v>99.37126381</v>
+        <v>99.23454501000001</v>
       </c>
       <c r="I178" t="n">
-        <v>102.65379217</v>
+        <v>102.44025484</v>
       </c>
       <c r="J178" t="n">
-        <v>103.82269081</v>
+        <v>102.4746095</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>100.63621985</v>
+        <v>99.65486478</v>
       </c>
       <c r="C179" t="n">
-        <v>101.45335056</v>
+        <v>101.28588754</v>
       </c>
       <c r="D179" t="n">
-        <v>102.33360791</v>
+        <v>101.65972297</v>
       </c>
       <c r="E179" t="n">
-        <v>102.23711137</v>
+        <v>101.11308142</v>
       </c>
       <c r="F179" t="n">
-        <v>101.14773232</v>
+        <v>101.2096713</v>
       </c>
       <c r="G179" t="n">
-        <v>102.01151052</v>
+        <v>101.71840647</v>
       </c>
       <c r="H179" t="n">
-        <v>99.37534936</v>
+        <v>99.28004246</v>
       </c>
       <c r="I179" t="n">
-        <v>102.68185566</v>
+        <v>102.32681736</v>
       </c>
       <c r="J179" t="n">
-        <v>103.68409363</v>
+        <v>102.63023776</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>100.13651925</v>
+        <v>99.17996481</v>
       </c>
       <c r="C180" t="n">
-        <v>101.35283218</v>
+        <v>101.24705449</v>
       </c>
       <c r="D180" t="n">
-        <v>102.0357036</v>
+        <v>101.49583782</v>
       </c>
       <c r="E180" t="n">
-        <v>101.99575371</v>
+        <v>101.00924833</v>
       </c>
       <c r="F180" t="n">
-        <v>101.10431386</v>
+        <v>101.16140297</v>
       </c>
       <c r="G180" t="n">
-        <v>101.85124506</v>
+        <v>101.44855565</v>
       </c>
       <c r="H180" t="n">
-        <v>99.21755432</v>
+        <v>99.1738486</v>
       </c>
       <c r="I180" t="n">
-        <v>102.65967147</v>
+        <v>102.65409956</v>
       </c>
       <c r="J180" t="n">
-        <v>103.15676176</v>
+        <v>102.41299024</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>99.63072479</v>
+        <v>98.57789909</v>
       </c>
       <c r="C181" t="n">
-        <v>101.17994314</v>
+        <v>101.50227752</v>
       </c>
       <c r="D181" t="n">
-        <v>101.69587079</v>
+        <v>101.56815491</v>
       </c>
       <c r="E181" t="n">
-        <v>102.01121982</v>
+        <v>100.86644546</v>
       </c>
       <c r="F181" t="n">
-        <v>101.12888763</v>
+        <v>101.09755269</v>
       </c>
       <c r="G181" t="n">
-        <v>101.66106477</v>
+        <v>101.10546986</v>
       </c>
       <c r="H181" t="n">
-        <v>99.23454501000001</v>
+        <v>99.19635393</v>
       </c>
       <c r="I181" t="n">
-        <v>102.44025484</v>
+        <v>102.72439902</v>
       </c>
       <c r="J181" t="n">
-        <v>102.4746095</v>
+        <v>102.98811598</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>98.212529</v>
+        <v>97.79738458999999</v>
       </c>
       <c r="C182" t="n">
-        <v>102.06781021</v>
+        <v>101.55892986</v>
       </c>
       <c r="D182" t="n">
-        <v>101.30026828</v>
+        <v>100.80303171</v>
       </c>
       <c r="E182" t="n">
-        <v>101.02920828</v>
+        <v>100.16558236</v>
       </c>
       <c r="F182" t="n">
-        <v>100.87005009</v>
+        <v>100.83723158</v>
       </c>
       <c r="G182" t="n">
-        <v>101.0295625</v>
+        <v>100.9527856</v>
       </c>
       <c r="H182" t="n">
-        <v>103.64677252</v>
+        <v>99.54775995</v>
       </c>
       <c r="I182" t="n">
-        <v>102.52415302</v>
+        <v>102.99575992</v>
       </c>
       <c r="J182" t="n">
-        <v>101.86385722</v>
+        <v>101.18318856</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>98.66540309</v>
+        <v>98.41508524</v>
       </c>
       <c r="C183" t="n">
-        <v>102.44224176</v>
+        <v>101.78006588</v>
       </c>
       <c r="D183" t="n">
-        <v>101.54459918</v>
+        <v>101.50236523</v>
       </c>
       <c r="E183" t="n">
-        <v>101.08975564</v>
+        <v>101.9914804</v>
       </c>
       <c r="F183" t="n">
-        <v>100.90658199</v>
+        <v>101.48892051</v>
       </c>
       <c r="G183" t="n">
-        <v>101.15223874</v>
+        <v>100.67703144</v>
       </c>
       <c r="H183" t="n">
-        <v>103.69932861</v>
+        <v>99.35971873</v>
       </c>
       <c r="I183" t="n">
-        <v>102.27042381</v>
+        <v>103.09514513</v>
       </c>
       <c r="J183" t="n">
-        <v>102.31956523</v>
+        <v>102.40561532</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>98.81085156</v>
+        <v>98.51667571999999</v>
       </c>
       <c r="C184" t="n">
-        <v>102.3777176</v>
+        <v>101.4229073</v>
       </c>
       <c r="D184" t="n">
-        <v>101.69243557</v>
+        <v>101.42203159</v>
       </c>
       <c r="E184" t="n">
-        <v>101.21930077</v>
+        <v>101.67075849</v>
       </c>
       <c r="F184" t="n">
-        <v>100.91120982</v>
+        <v>101.20404792</v>
       </c>
       <c r="G184" t="n">
-        <v>101.2041233</v>
+        <v>100.84473604</v>
       </c>
       <c r="H184" t="n">
-        <v>103.68623071</v>
+        <v>99.43510752</v>
       </c>
       <c r="I184" t="n">
-        <v>102.06928707</v>
+        <v>103.22231242</v>
       </c>
       <c r="J184" t="n">
-        <v>102.70025367</v>
+        <v>102.26293794</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>97.79738458999999</v>
+        <v>98.52836505</v>
       </c>
       <c r="C185" t="n">
-        <v>101.55892986</v>
+        <v>101.63054409</v>
       </c>
       <c r="D185" t="n">
-        <v>100.80303171</v>
+        <v>101.56520309</v>
       </c>
       <c r="E185" t="n">
-        <v>100.16558236</v>
+        <v>101.73247584</v>
       </c>
       <c r="F185" t="n">
-        <v>100.83723158</v>
+        <v>101.14235989</v>
       </c>
       <c r="G185" t="n">
-        <v>100.9527856</v>
+        <v>100.89546483</v>
       </c>
       <c r="H185" t="n">
-        <v>99.54775995</v>
+        <v>99.49668173000001</v>
       </c>
       <c r="I185" t="n">
-        <v>102.99575992</v>
+        <v>103.03101658</v>
       </c>
       <c r="J185" t="n">
-        <v>101.18318856</v>
+        <v>102.64798418</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>98.41508524</v>
+        <v>98.70931374</v>
       </c>
       <c r="C186" t="n">
-        <v>101.78006588</v>
+        <v>101.61468533</v>
       </c>
       <c r="D186" t="n">
-        <v>101.50236523</v>
+        <v>101.29468655</v>
       </c>
       <c r="E186" t="n">
-        <v>101.9914804</v>
+        <v>101.76289162</v>
       </c>
       <c r="F186" t="n">
-        <v>101.48892051</v>
+        <v>101.05029726</v>
       </c>
       <c r="G186" t="n">
-        <v>100.67703144</v>
+        <v>101.05396346</v>
       </c>
       <c r="H186" t="n">
-        <v>99.35971873</v>
+        <v>101.62290576</v>
       </c>
       <c r="I186" t="n">
-        <v>103.09514513</v>
+        <v>102.9699874</v>
       </c>
       <c r="J186" t="n">
-        <v>102.40561532</v>
+        <v>101.55443615</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>98.51667571999999</v>
+        <v>98.56655173999999</v>
       </c>
       <c r="C187" t="n">
-        <v>101.4229073</v>
+        <v>101.77707698</v>
       </c>
       <c r="D187" t="n">
-        <v>101.42203159</v>
+        <v>101.44911454</v>
       </c>
       <c r="E187" t="n">
-        <v>101.67075849</v>
+        <v>101.81588109</v>
       </c>
       <c r="F187" t="n">
-        <v>101.20404792</v>
+        <v>101.03762895</v>
       </c>
       <c r="G187" t="n">
-        <v>100.84473604</v>
+        <v>101.13695386</v>
       </c>
       <c r="H187" t="n">
-        <v>99.43510752</v>
+        <v>103.32479728</v>
       </c>
       <c r="I187" t="n">
-        <v>103.22231242</v>
+        <v>103.0213741</v>
       </c>
       <c r="J187" t="n">
-        <v>102.26293794</v>
+        <v>101.81944607</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>98.52836505</v>
+        <v>98.25901939000001</v>
       </c>
       <c r="C188" t="n">
-        <v>101.63054409</v>
+        <v>101.75768565</v>
       </c>
       <c r="D188" t="n">
-        <v>101.56520309</v>
+        <v>101.70447176</v>
       </c>
       <c r="E188" t="n">
-        <v>101.73247584</v>
+        <v>101.72589739</v>
       </c>
       <c r="F188" t="n">
-        <v>101.14235989</v>
+        <v>101.06086452</v>
       </c>
       <c r="G188" t="n">
-        <v>100.89546483</v>
+        <v>101.19785035</v>
       </c>
       <c r="H188" t="n">
-        <v>99.49668173000001</v>
+        <v>103.4322249</v>
       </c>
       <c r="I188" t="n">
-        <v>103.03101658</v>
+        <v>103.0686917</v>
       </c>
       <c r="J188" t="n">
-        <v>102.64798418</v>
+        <v>102.66979029</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>98.70931374</v>
+        <v>97.97746850999999</v>
       </c>
       <c r="C189" t="n">
-        <v>101.61468533</v>
+        <v>101.82142737</v>
       </c>
       <c r="D189" t="n">
-        <v>101.29468655</v>
+        <v>102.01732098</v>
       </c>
       <c r="E189" t="n">
-        <v>101.76289162</v>
+        <v>101.89105274</v>
       </c>
       <c r="F189" t="n">
-        <v>101.05029726</v>
+        <v>101.0124077</v>
       </c>
       <c r="G189" t="n">
-        <v>101.05396346</v>
+        <v>101.2023757</v>
       </c>
       <c r="H189" t="n">
-        <v>101.62290576</v>
+        <v>103.62070846</v>
       </c>
       <c r="I189" t="n">
-        <v>102.9699874</v>
+        <v>103.05662675</v>
       </c>
       <c r="J189" t="n">
-        <v>101.55443615</v>
+        <v>103.60914634</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>98.56655173999999</v>
+        <v>97.94861467</v>
       </c>
       <c r="C190" t="n">
-        <v>101.77707698</v>
+        <v>101.97133724</v>
       </c>
       <c r="D190" t="n">
-        <v>101.44911454</v>
+        <v>101.64321672</v>
       </c>
       <c r="E190" t="n">
-        <v>101.81588109</v>
+        <v>101.31921713</v>
       </c>
       <c r="F190" t="n">
-        <v>101.03762895</v>
+        <v>101.05905083</v>
       </c>
       <c r="G190" t="n">
-        <v>101.13695386</v>
+        <v>101.2165702</v>
       </c>
       <c r="H190" t="n">
-        <v>103.32479728</v>
+        <v>103.66217779</v>
       </c>
       <c r="I190" t="n">
-        <v>103.0213741</v>
+        <v>102.89468826</v>
       </c>
       <c r="J190" t="n">
-        <v>101.81944607</v>
+        <v>102.66378707</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>98.25901939000001</v>
+        <v>98.212529</v>
       </c>
       <c r="C191" t="n">
-        <v>101.75768565</v>
+        <v>102.06781021</v>
       </c>
       <c r="D191" t="n">
-        <v>101.70447176</v>
+        <v>101.30026828</v>
       </c>
       <c r="E191" t="n">
-        <v>101.72589739</v>
+        <v>101.02920828</v>
       </c>
       <c r="F191" t="n">
-        <v>101.06086452</v>
+        <v>100.87005009</v>
       </c>
       <c r="G191" t="n">
-        <v>101.19785035</v>
+        <v>101.0295625</v>
       </c>
       <c r="H191" t="n">
-        <v>103.4322249</v>
+        <v>103.64677252</v>
       </c>
       <c r="I191" t="n">
-        <v>103.0686917</v>
+        <v>102.52415302</v>
       </c>
       <c r="J191" t="n">
-        <v>102.66979029</v>
+        <v>101.86385722</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>97.97746850999999</v>
+        <v>98.66540309</v>
       </c>
       <c r="C192" t="n">
-        <v>101.82142737</v>
+        <v>102.44224176</v>
       </c>
       <c r="D192" t="n">
-        <v>102.01732098</v>
+        <v>101.54459918</v>
       </c>
       <c r="E192" t="n">
-        <v>101.89105274</v>
+        <v>101.08975564</v>
       </c>
       <c r="F192" t="n">
-        <v>101.0124077</v>
+        <v>100.90658199</v>
       </c>
       <c r="G192" t="n">
-        <v>101.2023757</v>
+        <v>101.15223874</v>
       </c>
       <c r="H192" t="n">
-        <v>103.62070846</v>
+        <v>103.69932861</v>
       </c>
       <c r="I192" t="n">
-        <v>103.05662675</v>
+        <v>102.27042381</v>
       </c>
       <c r="J192" t="n">
-        <v>103.60914634</v>
+        <v>102.31956523</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>97.94861467</v>
+        <v>98.81085156</v>
       </c>
       <c r="C193" t="n">
-        <v>101.97133724</v>
+        <v>102.3777176</v>
       </c>
       <c r="D193" t="n">
-        <v>101.64321672</v>
+        <v>101.69243557</v>
       </c>
       <c r="E193" t="n">
-        <v>101.31921713</v>
+        <v>101.21930077</v>
       </c>
       <c r="F193" t="n">
-        <v>101.05905083</v>
+        <v>100.91120982</v>
       </c>
       <c r="G193" t="n">
-        <v>101.2165702</v>
+        <v>101.2041233</v>
       </c>
       <c r="H193" t="n">
-        <v>103.66217779</v>
+        <v>103.68623071</v>
       </c>
       <c r="I193" t="n">
-        <v>102.89468826</v>
+        <v>102.06928707</v>
       </c>
       <c r="J193" t="n">
-        <v>102.66378707</v>
+        <v>102.70025367</v>
       </c>
     </row>
   </sheetData>
